--- a/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC464524-2012-4E3C-84A4-4EB51A5138EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C649DFD-C851-4FCA-8791-F2FEB3924D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,7 +636,7 @@
       </c>
       <c r="D3" s="4">
         <f>Nhập!AH4</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E3" s="4">
         <f>Xuất!AH4+'Hủy tb'!AH3</f>
@@ -644,14 +644,14 @@
       </c>
       <c r="F3" s="4">
         <f>C3+D3-E3</f>
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="G3" s="8">
         <v>0</v>
       </c>
       <c r="H3" s="4">
         <f>F3-G3</f>
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -662,7 +662,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="4">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D4" s="4">
         <f>Nhập!AH5</f>
@@ -670,18 +670,18 @@
       </c>
       <c r="E4" s="4">
         <f>Xuất!AH5+'Hủy tb'!AH4</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F4" s="4">
         <f>C4+D4-E4</f>
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="G4" s="8">
         <v>11</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H17" si="0">F4-G4</f>
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1090,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH18"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1291,7 +1291,9 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4">
+        <v>32</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="5"/>
@@ -1320,7 +1322,7 @@
       <c r="AG4" s="4"/>
       <c r="AH4" s="4">
         <f>SUM(C4:AG4)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -1941,7 +1943,7 @@
   <dimension ref="A1:AH18"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2184,8 +2186,12 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>7</v>
+      </c>
       <c r="I5" s="4"/>
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
@@ -2213,7 +2219,7 @@
       <c r="AG5" s="4"/>
       <c r="AH5" s="4">
         <f t="shared" ref="AH5:AH18" si="0">SUM(C5:AG5)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">

--- a/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C649DFD-C851-4FCA-8791-F2FEB3924D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF15D69-73AA-41E8-B537-1CAF068B7931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,18 +640,18 @@
       </c>
       <c r="E3" s="4">
         <f>Xuất!AH4+'Hủy tb'!AH3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="4">
         <f>C3+D3-E3</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="8">
         <v>0</v>
       </c>
       <c r="H3" s="4">
         <f>F3-G3</f>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -670,18 +670,18 @@
       </c>
       <c r="E4" s="4">
         <f>Xuất!AH5+'Hủy tb'!AH4</f>
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F4" s="4">
         <f>C4+D4-E4</f>
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G4" s="8">
         <v>11</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H17" si="0">F4-G4</f>
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1090,7 +1090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH18"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
@@ -1943,7 +1943,7 @@
   <dimension ref="A1:AH18"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2144,7 +2144,9 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
@@ -2172,7 +2174,7 @@
       <c r="AG4" s="4"/>
       <c r="AH4" s="4">
         <f>SUM(C4:AG4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -2187,10 +2189,10 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H5" s="4">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="5"/>
@@ -2219,7 +2221,7 @@
       <c r="AG5" s="4"/>
       <c r="AH5" s="4">
         <f t="shared" ref="AH5:AH18" si="0">SUM(C5:AG5)</f>
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">

--- a/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF15D69-73AA-41E8-B537-1CAF068B7931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D213425D-CAE7-4A68-BDBE-773FEC04EB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -571,7 +571,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,18 +670,18 @@
       </c>
       <c r="E4" s="4">
         <f>Xuất!AH5+'Hủy tb'!AH4</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F4" s="4">
         <f>C4+D4-E4</f>
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G4" s="8">
         <v>11</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H17" si="0">F4-G4</f>
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1943,7 +1943,7 @@
   <dimension ref="A1:AH18"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2189,12 +2189,14 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H5" s="4">
         <v>16</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="4">
+        <v>2</v>
+      </c>
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -2221,7 +2223,7 @@
       <c r="AG5" s="4"/>
       <c r="AH5" s="4">
         <f t="shared" ref="AH5:AH18" si="0">SUM(C5:AG5)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">

--- a/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D213425D-CAE7-4A68-BDBE-773FEC04EB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD9AB90-B70F-49A5-BAAC-8B7B7DC2D0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
     <sheet name="Nhập" sheetId="2" r:id="rId2"/>
     <sheet name="Xuất" sheetId="3" r:id="rId3"/>
     <sheet name="Hủy tb" sheetId="4" r:id="rId4"/>
+    <sheet name="Ghi chú" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Ghi chú'!$A$1:$E$7</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="45">
   <si>
     <t>VNSH01</t>
   </si>
@@ -115,6 +119,54 @@
   </si>
   <si>
     <t>Danh Sách Thiết Bị Gửi Trên Bảo Hành - Sản Xuất Tháng 01</t>
+  </si>
+  <si>
+    <t>Đã trả (07/01/26)</t>
+  </si>
+  <si>
+    <t>Victory</t>
+  </si>
+  <si>
+    <t>Đã trả (09/01/26)</t>
+  </si>
+  <si>
+    <t>ĐL anh Tuấn NB</t>
+  </si>
+  <si>
+    <t>Đã trả (06/01/26)</t>
+  </si>
+  <si>
+    <t>ĐL anh Ân Thái Bình</t>
+  </si>
+  <si>
+    <t>ĐL GPS Global</t>
+  </si>
+  <si>
+    <t>Đã trả (05/01/26)</t>
+  </si>
+  <si>
+    <t>ĐL Hay Huế</t>
+  </si>
+  <si>
+    <t>Gsatcom</t>
+  </si>
+  <si>
+    <t>ĐL SEA</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>Đại lý</t>
+  </si>
+  <si>
+    <t>Ngày</t>
+  </si>
+  <si>
+    <t>Anh Tuấn BG</t>
+  </si>
+  <si>
+    <t>Chưa trả</t>
   </si>
 </sst>
 </file>
@@ -177,7 +229,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -237,11 +289,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -267,6 +345,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -288,11 +384,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -570,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,16 +710,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="11"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -640,18 +763,18 @@
       </c>
       <c r="E3" s="4">
         <f>Xuất!AH4+'Hủy tb'!AH3</f>
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="F3" s="4">
         <f>C3+D3-E3</f>
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="G3" s="8">
         <v>0</v>
       </c>
       <c r="H3" s="4">
         <f>F3-G3</f>
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -670,18 +793,18 @@
       </c>
       <c r="E4" s="4">
         <f>Xuất!AH5+'Hủy tb'!AH4</f>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F4" s="4">
         <f>C4+D4-E4</f>
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G4" s="8">
         <v>11</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H17" si="0">F4-G4</f>
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -694,10 +817,7 @@
       <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="4">
-        <f>Nhập!AH6</f>
-        <v>0</v>
-      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="4">
         <f>Xuất!AH6+'Hủy tb'!AH5</f>
         <v>0</v>
@@ -989,20 +1109,23 @@
         <v>0</v>
       </c>
       <c r="D15" s="4">
-        <v>0</v>
+        <f>Nhập!AH15</f>
+        <v>8</v>
       </c>
       <c r="E15" s="4">
+        <f>Xuất!AH15</f>
         <v>0</v>
       </c>
       <c r="F15" s="4">
-        <v>0</v>
+        <f t="shared" ref="F15" si="6">C15+D15-E15</f>
+        <v>8</v>
       </c>
       <c r="G15" s="8">
         <v>0</v>
       </c>
       <c r="H15" s="4">
-        <f>SUM(F15-G15)</f>
-        <v>0</v>
+        <f t="shared" ref="H15" si="7">F15-G15</f>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1090,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH18"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,88 +1226,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="5">
         <v>1</v>
       </c>
@@ -1278,7 +1401,7 @@
       <c r="AG3" s="4">
         <v>31</v>
       </c>
-      <c r="AH3" s="13"/>
+      <c r="AH3" s="19"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -1769,7 +1892,9 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="5"/>
+      <c r="J15" s="5">
+        <v>8</v>
+      </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -1795,7 +1920,7 @@
       <c r="AG15" s="4"/>
       <c r="AH15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
@@ -1943,7 +2068,7 @@
   <dimension ref="A1:AH18"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1955,88 +2080,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="5">
         <v>1</v>
       </c>
@@ -2130,7 +2255,7 @@
       <c r="AG3" s="4">
         <v>31</v>
       </c>
-      <c r="AH3" s="13"/>
+      <c r="AH3" s="19"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -2149,7 +2274,9 @@
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
+      <c r="K4" s="4">
+        <v>36</v>
+      </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -2174,7 +2301,7 @@
       <c r="AG4" s="4"/>
       <c r="AH4" s="4">
         <f>SUM(C4:AG4)</f>
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -2198,7 +2325,9 @@
         <v>2</v>
       </c>
       <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
+      <c r="K5" s="4">
+        <v>10</v>
+      </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -2223,7 +2352,7 @@
       <c r="AG5" s="4"/>
       <c r="AH5" s="4">
         <f t="shared" ref="AH5:AH18" si="0">SUM(C5:AG5)</f>
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -2812,52 +2941,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="5">
         <v>1</v>
       </c>
@@ -2951,7 +3080,7 @@
       <c r="AG2" s="4">
         <v>31</v>
       </c>
-      <c r="AH2" s="13"/>
+      <c r="AH2" s="19"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -3636,4 +3765,232 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C51F44-131D-46D9-8F20-A11BD47AE60F}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="10" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
+        <v>45662</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11">
+        <v>6</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
+      <c r="B3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="11">
+        <v>32</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11">
+        <v>10</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="24">
+        <v>45663</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11">
+        <v>6</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>45664</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="11">
+        <v>4</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11">
+        <v>2</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>45665</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11">
+        <v>10</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>45666</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E7" xr:uid="{171653DB-B967-4059-9CE3-FD13B7B63DBC}"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C2:E1000">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>ISNUMBER(SEARCH("Đã trả",$E2))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>ISNUMBER(SEARCH("Chưa trả",$E2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A65AA5-302F-4DDD-83CD-86603D454461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D596E3D-5DFC-4795-AC59-18D6C31AB543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="51">
   <si>
     <t>VNSH01</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Anh Tuấn BG</t>
   </si>
   <si>
-    <t>Chưa trả</t>
-  </si>
-  <si>
     <t>TG102-E4G</t>
   </si>
   <si>
@@ -184,12 +181,18 @@
   <si>
     <t>TG102LE-4G(ESIM)</t>
   </si>
+  <si>
+    <t>Đã trả (12/01/26)</t>
+  </si>
+  <si>
+    <t>Lực KD không lấy nữa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,8 +233,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,6 +249,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -385,6 +399,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -419,6 +436,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -719,7 +748,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,16 +764,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -818,18 +847,18 @@
       </c>
       <c r="E4" s="4">
         <f>Xuất!AH5+Huỷ!AH4</f>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F4" s="4">
         <f>C4+D4-E4</f>
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G4" s="6">
         <v>11</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H22" si="0">F4-G4</f>
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -837,7 +866,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
@@ -867,7 +896,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
@@ -897,7 +926,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
@@ -927,7 +956,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="4">
         <v>0</v>
@@ -957,7 +986,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
@@ -987,7 +1016,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
@@ -1017,7 +1046,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
@@ -1047,7 +1076,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="4">
         <v>0</v>
@@ -1077,7 +1106,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="4">
         <v>0</v>
@@ -1107,7 +1136,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="4">
         <v>0</v>
@@ -1137,7 +1166,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
@@ -1167,7 +1196,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4">
@@ -1193,7 +1222,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4">
@@ -1219,7 +1248,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4">
@@ -1245,7 +1274,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4">
@@ -1271,7 +1300,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4">
@@ -1297,7 +1326,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="4">
         <v>0</v>
@@ -1350,6 +1379,12 @@
       <c r="H22" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="1">
+        <f>SUM(F3:F22)</f>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1383,7 +1418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH22"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
@@ -1396,52 +1431,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="13">
         <v>1</v>
       </c>
@@ -1535,7 +1570,7 @@
       <c r="AG2" s="13">
         <v>31</v>
       </c>
-      <c r="AH2" s="23"/>
+      <c r="AH2" s="24"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
@@ -1630,7 +1665,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -1675,7 +1710,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -1720,7 +1755,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -1763,7 +1798,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -1808,7 +1843,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -1853,7 +1888,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -1900,7 +1935,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -1943,7 +1978,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -1988,7 +2023,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -2028,7 +2063,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -2068,7 +2103,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -2108,7 +2143,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -2148,7 +2183,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -2193,7 +2228,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -2236,7 +2271,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -2279,7 +2314,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -2319,7 +2354,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -2410,8 +2445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH23"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="AF28" sqref="AF28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2423,88 +2458,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="13">
         <v>1</v>
       </c>
@@ -2598,7 +2633,7 @@
       <c r="AG3" s="13">
         <v>31</v>
       </c>
-      <c r="AH3" s="23"/>
+      <c r="AH3" s="24"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
@@ -2673,7 +2708,9 @@
       </c>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
+      <c r="N5" s="13">
+        <v>10</v>
+      </c>
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
@@ -2695,7 +2732,7 @@
       <c r="AG5" s="13"/>
       <c r="AH5" s="13">
         <f t="shared" ref="AH5:AH18" si="0">SUM(C5:AG5)</f>
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -2703,7 +2740,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -2746,7 +2783,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -2789,7 +2826,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -2832,7 +2869,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -2875,7 +2912,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -2918,7 +2955,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -2961,7 +2998,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -3004,7 +3041,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -3047,7 +3084,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -3090,7 +3127,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -3133,7 +3170,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -3176,7 +3213,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -3219,7 +3256,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -3260,7 +3297,7 @@
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -3298,7 +3335,7 @@
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -3336,7 +3373,7 @@
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -3374,7 +3411,7 @@
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
@@ -3476,52 +3513,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="13">
         <v>1</v>
       </c>
@@ -3615,7 +3652,7 @@
       <c r="AG2" s="13">
         <v>31</v>
       </c>
-      <c r="AH2" s="23"/>
+      <c r="AH2" s="24"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
@@ -3708,7 +3745,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -3751,7 +3788,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -3794,7 +3831,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -3837,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -3880,7 +3917,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -3923,7 +3960,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -3966,7 +4003,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -4009,7 +4046,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -4052,7 +4089,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -4095,7 +4132,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -4138,7 +4175,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -4181,7 +4218,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -4224,7 +4261,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -4267,7 +4304,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -4308,7 +4345,7 @@
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -4346,7 +4383,7 @@
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -4384,7 +4421,7 @@
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -4473,14 +4510,15 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="8" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="8" customWidth="1"/>
-    <col min="3" max="5" width="15.7109375" style="8" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="8" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
@@ -4503,7 +4541,7 @@
       <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="25">
+      <c r="A2" s="26">
         <v>45662</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -4518,7 +4556,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
@@ -4531,7 +4569,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="9" t="s">
         <v>24</v>
       </c>
@@ -4544,7 +4582,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="9" t="s">
         <v>23</v>
       </c>
@@ -4557,7 +4595,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
+      <c r="A6" s="28">
         <v>45663</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -4572,7 +4610,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
@@ -4585,7 +4623,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+      <c r="A8" s="26">
         <v>45664</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -4600,7 +4638,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
@@ -4634,20 +4672,28 @@
       <c r="B11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9">
+      <c r="C11" s="33"/>
+      <c r="D11" s="33">
         <v>3</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>30</v>
+      <c r="E11" s="33" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="10">
+        <v>45669</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="D12" s="9">
+        <v>10</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
@@ -4698,10 +4744,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1D2FD3-91FF-42CA-8178-C2AD22F246DD}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4712,16 +4758,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -4795,18 +4841,18 @@
       </c>
       <c r="E4" s="4">
         <f>SUM('Nhập xuất tồn'!E4)</f>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F4" s="4">
         <f>SUM(C4+D4-E4)</f>
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G4" s="6">
         <v>11</v>
       </c>
       <c r="H4" s="4">
         <f>SUM(F4-G4)</f>
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4814,7 +4860,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
@@ -4844,7 +4890,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
@@ -4874,7 +4920,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
@@ -4904,7 +4950,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="4">
         <v>0</v>
@@ -4934,7 +4980,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
@@ -4964,7 +5010,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
@@ -4994,7 +5040,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4">
@@ -5020,7 +5066,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4">
@@ -5046,7 +5092,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4">
@@ -5072,7 +5118,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4">
@@ -5098,7 +5144,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4">
@@ -5124,7 +5170,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="4">
         <v>0</v>
@@ -5180,9 +5226,43 @@
         <v>6</v>
       </c>
     </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31">
+        <f>SUM(C3:C17)</f>
+        <v>157</v>
+      </c>
+      <c r="D18" s="31">
+        <f t="shared" ref="D18:F18" si="2">SUM(D3:D17)</f>
+        <v>55</v>
+      </c>
+      <c r="E18" s="31">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="F18" s="31">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="G18" s="32">
+        <f t="shared" ref="G18" si="3">SUM(G3:G17)</f>
+        <v>11</v>
+      </c>
+      <c r="H18" s="31">
+        <f t="shared" ref="H18" si="4">SUM(H3:H17)</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D596E3D-5DFC-4795-AC59-18D6C31AB543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB7C5B2-4B49-4F88-899D-9FBBBB73B0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="53">
   <si>
     <t>VNSH01</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>Lực KD không lấy nữa</t>
+  </si>
+  <si>
+    <t>ĐL Anh Trực</t>
+  </si>
+  <si>
+    <t>Đã trả (13/01/26)</t>
   </si>
 </sst>
 </file>
@@ -349,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -402,6 +408,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -409,6 +424,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -440,15 +458,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,7 +757,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,16 +773,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -813,7 +822,7 @@
       </c>
       <c r="D3" s="4">
         <f>Nhập!AH3</f>
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E3" s="4">
         <f>Xuất!AH4+Huỷ!AH3</f>
@@ -821,14 +830,14 @@
       </c>
       <c r="F3" s="4">
         <f>C3+D3-E3</f>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G3" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="4">
         <f>F3-G3</f>
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1381,9 +1390,33 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="1">
-        <f>SUM(F3:F22)</f>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="4">
+        <f>SUM(C3:C22)</f>
+        <v>157</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" ref="D23:H23" si="2">SUM(D3:D22)</f>
+        <v>67</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
     </row>
@@ -1406,8 +1439,9 @@
       <c r="B31" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1419,7 +1453,7 @@
   <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1431,52 +1465,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="13">
         <v>1</v>
       </c>
@@ -1570,7 +1604,7 @@
       <c r="AG2" s="13">
         <v>31</v>
       </c>
-      <c r="AH2" s="24"/>
+      <c r="AH2" s="28"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
@@ -1593,7 +1627,9 @@
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
+      <c r="O3" s="13">
+        <v>12</v>
+      </c>
       <c r="P3" s="13"/>
       <c r="Q3" s="13"/>
       <c r="R3" s="13"/>
@@ -1614,7 +1650,7 @@
       <c r="AG3" s="13"/>
       <c r="AH3" s="13">
         <f>SUM(C3:AG3)</f>
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
@@ -2445,7 +2481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH23"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="AF28" sqref="AF28"/>
     </sheetView>
   </sheetViews>
@@ -2458,88 +2494,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
+      <c r="A1" s="29"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="13">
         <v>1</v>
       </c>
@@ -2633,7 +2669,7 @@
       <c r="AG3" s="13">
         <v>31</v>
       </c>
-      <c r="AH3" s="24"/>
+      <c r="AH3" s="28"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
@@ -3513,52 +3549,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="13">
         <v>1</v>
       </c>
@@ -3652,7 +3688,7 @@
       <c r="AG2" s="13">
         <v>31</v>
       </c>
-      <c r="AH2" s="24"/>
+      <c r="AH2" s="28"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
@@ -4509,8 +4545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C51F44-131D-46D9-8F20-A11BD47AE60F}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4541,7 +4577,7 @@
       <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+      <c r="A2" s="30">
         <v>45662</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -4556,7 +4592,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
@@ -4569,7 +4605,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="9" t="s">
         <v>24</v>
       </c>
@@ -4582,7 +4618,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="9" t="s">
         <v>23</v>
       </c>
@@ -4595,7 +4631,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
+      <c r="A6" s="32">
         <v>45663</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -4610,7 +4646,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
@@ -4623,7 +4659,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
+      <c r="A8" s="30">
         <v>45664</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -4638,7 +4674,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
@@ -4672,11 +4708,11 @@
       <c r="B11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33">
+      <c r="C11" s="20"/>
+      <c r="D11" s="20">
         <v>3</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="20" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4696,18 +4732,32 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
+      <c r="A13" s="32">
+        <v>45670</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="9">
+        <v>5</v>
+      </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="E13" s="9" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
@@ -4725,10 +4775,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E7" xr:uid="{171653DB-B967-4059-9CE3-FD13B7B63DBC}"/>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:E1000">
     <cfRule type="expression" dxfId="1" priority="1">
@@ -4758,16 +4809,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -4807,7 +4858,7 @@
       </c>
       <c r="D3" s="4">
         <f>SUM('Nhập xuất tồn'!D3)</f>
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E3" s="4">
         <f>SUM('Nhập xuất tồn'!E3)</f>
@@ -4815,14 +4866,14 @@
       </c>
       <c r="F3" s="4">
         <f>SUM(C3+D3-E3)</f>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
       </c>
       <c r="H3" s="4">
         <f>SUM(F3-G3)</f>
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5227,33 +5278,33 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31">
+      <c r="B18" s="34"/>
+      <c r="C18" s="18">
         <f>SUM(C3:C17)</f>
         <v>157</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="18">
         <f t="shared" ref="D18:F18" si="2">SUM(D3:D17)</f>
-        <v>55</v>
-      </c>
-      <c r="E18" s="31">
+        <v>67</v>
+      </c>
+      <c r="E18" s="18">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="18">
         <f t="shared" si="2"/>
-        <v>130</v>
-      </c>
-      <c r="G18" s="32">
+        <v>142</v>
+      </c>
+      <c r="G18" s="19">
         <f t="shared" ref="G18" si="3">SUM(G3:G17)</f>
         <v>11</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="18">
         <f t="shared" ref="H18" si="4">SUM(H3:H17)</f>
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">

--- a/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB7C5B2-4B49-4F88-899D-9FBBBB73B0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A109A2A-FF86-4524-81CB-1AA6886652D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -757,7 +757,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,18 +826,18 @@
       </c>
       <c r="E3" s="4">
         <f>Xuất!AH4+Huỷ!AH3</f>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F3" s="4">
         <f>C3+D3-E3</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
       </c>
       <c r="H3" s="4">
         <f>F3-G3</f>
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -856,18 +856,18 @@
       </c>
       <c r="E4" s="4">
         <f>Xuất!AH5+Huỷ!AH4</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F4" s="4">
         <f>C4+D4-E4</f>
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G4" s="6">
         <v>11</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H22" si="0">F4-G4</f>
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1405,11 +1405,11 @@
       </c>
       <c r="E23" s="4">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="2"/>
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="2"/>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="H23" s="4">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1453,7 +1453,7 @@
   <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2482,7 +2482,7 @@
   <dimension ref="A1:AH23"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="AF28" sqref="AF28"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2694,7 +2694,9 @@
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
+      <c r="O4" s="13">
+        <v>5</v>
+      </c>
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
@@ -2715,7 +2717,7 @@
       <c r="AG4" s="13"/>
       <c r="AH4" s="13">
         <f>SUM(C4:AG4)</f>
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -2747,7 +2749,9 @@
       <c r="N5" s="13">
         <v>10</v>
       </c>
-      <c r="O5" s="13"/>
+      <c r="O5" s="13">
+        <v>1</v>
+      </c>
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
@@ -2768,7 +2772,7 @@
       <c r="AG5" s="13"/>
       <c r="AH5" s="13">
         <f t="shared" ref="AH5:AH18" si="0">SUM(C5:AG5)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -4545,8 +4549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C51F44-131D-46D9-8F20-A11BD47AE60F}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4797,8 +4801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1D2FD3-91FF-42CA-8178-C2AD22F246DD}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4862,18 +4866,18 @@
       </c>
       <c r="E3" s="4">
         <f>SUM('Nhập xuất tồn'!E3)</f>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F3" s="4">
         <f>SUM(C3+D3-E3)</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
       </c>
       <c r="H3" s="4">
         <f>SUM(F3-G3)</f>
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4892,18 +4896,18 @@
       </c>
       <c r="E4" s="4">
         <f>SUM('Nhập xuất tồn'!E4)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F4" s="4">
         <f>SUM(C4+D4-E4)</f>
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G4" s="6">
         <v>11</v>
       </c>
       <c r="H4" s="4">
         <f>SUM(F4-G4)</f>
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5292,11 +5296,11 @@
       </c>
       <c r="E18" s="18">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F18" s="18">
         <f t="shared" si="2"/>
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G18" s="19">
         <f t="shared" ref="G18" si="3">SUM(G3:G17)</f>
@@ -5304,7 +5308,7 @@
       </c>
       <c r="H18" s="18">
         <f t="shared" ref="H18" si="4">SUM(H3:H17)</f>
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">

--- a/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A109A2A-FF86-4524-81CB-1AA6886652D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044FDB59-F4C1-41AE-A685-2B6AA90BFF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="56">
   <si>
     <t>VNSH01</t>
   </si>
@@ -192,6 +192,15 @@
   </si>
   <si>
     <t>Đã trả (13/01/26)</t>
+  </si>
+  <si>
+    <t>ĐL Anh Thái QN</t>
+  </si>
+  <si>
+    <t>Chưa trả</t>
+  </si>
+  <si>
+    <t>ĐL Anh Sửu Bình Định</t>
   </si>
 </sst>
 </file>
@@ -355,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -450,14 +459,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4547,10 +4553,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C51F44-131D-46D9-8F20-A11BD47AE60F}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4635,7 +4641,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="A6" s="30">
         <v>45663</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -4650,7 +4656,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
@@ -4736,7 +4742,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
+      <c r="A13" s="30">
         <v>45670</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -4751,7 +4757,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="9" t="s">
         <v>23</v>
       </c>
@@ -4764,26 +4770,132 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="33">
+        <v>45671</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="D15" s="9">
+        <v>10</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="D16" s="9">
+        <v>10</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E7" xr:uid="{171653DB-B967-4059-9CE3-FD13B7B63DBC}"/>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:E1000">
     <cfRule type="expression" dxfId="1" priority="1">
@@ -4801,7 +4913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1D2FD3-91FF-42CA-8178-C2AD22F246DD}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -5282,10 +5394,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="34"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="18">
         <f>SUM(C3:C17)</f>
         <v>157</v>

--- a/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044FDB59-F4C1-41AE-A685-2B6AA90BFF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A232E71D-482C-45F1-9B45-E9C248A582D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -197,10 +197,10 @@
     <t>ĐL Anh Thái QN</t>
   </si>
   <si>
-    <t>Chưa trả</t>
-  </si>
-  <si>
     <t>ĐL Anh Sửu Bình Định</t>
+  </si>
+  <si>
+    <t>Đã trả (14/01/26)</t>
   </si>
 </sst>
 </file>
@@ -364,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -461,9 +461,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -862,18 +859,18 @@
       </c>
       <c r="E4" s="4">
         <f>Xuất!AH5+Huỷ!AH4</f>
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F4" s="4">
         <f>C4+D4-E4</f>
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="G4" s="6">
         <v>11</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H22" si="0">F4-G4</f>
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1411,11 +1408,11 @@
       </c>
       <c r="E23" s="4">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="2"/>
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="2"/>
@@ -1423,7 +1420,7 @@
       </c>
       <c r="H23" s="4">
         <f t="shared" si="2"/>
-        <v>124</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2488,7 +2485,7 @@
   <dimension ref="A1:AH23"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2758,7 +2755,9 @@
       <c r="O5" s="13">
         <v>1</v>
       </c>
-      <c r="P5" s="13"/>
+      <c r="P5" s="13">
+        <v>20</v>
+      </c>
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
@@ -2778,7 +2777,7 @@
       <c r="AG5" s="13"/>
       <c r="AH5" s="13">
         <f t="shared" ref="AH5:AH18" si="0">SUM(C5:AG5)</f>
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -4555,8 +4554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C51F44-131D-46D9-8F20-A11BD47AE60F}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4770,7 +4769,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="33">
+      <c r="A15" s="30">
         <v>45671</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -4781,20 +4780,20 @@
         <v>10</v>
       </c>
       <c r="E15" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
+      <c r="B16" s="9" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9">
         <v>10</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -4913,8 +4912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1D2FD3-91FF-42CA-8178-C2AD22F246DD}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5008,18 +5007,18 @@
       </c>
       <c r="E4" s="4">
         <f>SUM('Nhập xuất tồn'!E4)</f>
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F4" s="4">
         <f>SUM(C4+D4-E4)</f>
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="G4" s="6">
         <v>11</v>
       </c>
       <c r="H4" s="4">
         <f>SUM(F4-G4)</f>
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5408,11 +5407,11 @@
       </c>
       <c r="E18" s="18">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="F18" s="18">
         <f t="shared" si="2"/>
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="G18" s="19">
         <f t="shared" ref="G18" si="3">SUM(G3:G17)</f>
@@ -5420,7 +5419,7 @@
       </c>
       <c r="H18" s="18">
         <f t="shared" ref="H18" si="4">SUM(H3:H17)</f>
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">

--- a/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A232E71D-482C-45F1-9B45-E9C248A582D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97F2D98-95C4-40B2-B7DF-9FE62E69C3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Chốt Kho" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Ghi chú'!$A$1:$E$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Ghi chú'!$A$1:$F$7</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="61">
   <si>
     <t>VNSH01</t>
   </si>
@@ -201,6 +201,21 @@
   </si>
   <si>
     <t>Đã trả (14/01/26)</t>
+  </si>
+  <si>
+    <t>ĐL Tuyên Hằng</t>
+  </si>
+  <si>
+    <t>Đã trả (15/01/26)</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Chưa trả kho</t>
+  </si>
+  <si>
+    <t>Thiết bị anh Tuấn BG Thảo đã đổi trước, xử lý xong trả kho</t>
   </si>
 </sst>
 </file>
@@ -364,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -383,24 +398,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -423,8 +420,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -453,11 +474,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -776,16 +803,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -859,18 +886,18 @@
       </c>
       <c r="E4" s="4">
         <f>Xuất!AH5+Huỷ!AH4</f>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F4" s="4">
         <f>C4+D4-E4</f>
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G4" s="6">
         <v>11</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H22" si="0">F4-G4</f>
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1394,10 +1421,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="24"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="4">
         <f>SUM(C3:C22)</f>
         <v>157</v>
@@ -1408,11 +1435,11 @@
       </c>
       <c r="E23" s="4">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="2"/>
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="2"/>
@@ -1420,7 +1447,7 @@
       </c>
       <c r="H23" s="4">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1456,1017 +1483,1017 @@
   <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="15" customWidth="1"/>
-    <col min="3" max="34" width="5.28515625" style="15" customWidth="1"/>
-    <col min="35" max="16384" width="8.85546875" style="15"/>
+    <col min="1" max="1" width="6.5703125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="9" customWidth="1"/>
+    <col min="3" max="34" width="5.28515625" style="9" customWidth="1"/>
+    <col min="35" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="13">
+      <c r="A2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="7">
         <v>1</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="7">
         <v>2</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="7">
         <v>3</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="7">
         <v>4</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="7">
         <v>5</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="7">
         <v>6</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="7">
         <v>7</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="7">
         <v>8</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="7">
         <v>9</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="7">
         <v>10</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="7">
         <v>11</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="7">
         <v>12</v>
       </c>
-      <c r="O2" s="13">
+      <c r="O2" s="7">
         <v>13</v>
       </c>
-      <c r="P2" s="13">
+      <c r="P2" s="7">
         <v>14</v>
       </c>
-      <c r="Q2" s="13">
+      <c r="Q2" s="7">
         <v>15</v>
       </c>
-      <c r="R2" s="13">
+      <c r="R2" s="7">
         <v>16</v>
       </c>
-      <c r="S2" s="13">
+      <c r="S2" s="7">
         <v>17</v>
       </c>
-      <c r="T2" s="13">
+      <c r="T2" s="7">
         <v>18</v>
       </c>
-      <c r="U2" s="13">
+      <c r="U2" s="7">
         <v>19</v>
       </c>
-      <c r="V2" s="13">
+      <c r="V2" s="7">
         <v>20</v>
       </c>
-      <c r="W2" s="13">
+      <c r="W2" s="7">
         <v>21</v>
       </c>
-      <c r="X2" s="13">
+      <c r="X2" s="7">
         <v>22</v>
       </c>
-      <c r="Y2" s="13">
+      <c r="Y2" s="7">
         <v>23</v>
       </c>
-      <c r="Z2" s="13">
+      <c r="Z2" s="7">
         <v>24</v>
       </c>
-      <c r="AA2" s="13">
+      <c r="AA2" s="7">
         <v>25</v>
       </c>
-      <c r="AB2" s="13">
+      <c r="AB2" s="7">
         <v>26</v>
       </c>
-      <c r="AC2" s="13">
+      <c r="AC2" s="7">
         <v>27</v>
       </c>
-      <c r="AD2" s="13">
+      <c r="AD2" s="7">
         <v>28</v>
       </c>
-      <c r="AE2" s="13">
+      <c r="AE2" s="7">
         <v>29</v>
       </c>
-      <c r="AF2" s="13">
+      <c r="AF2" s="7">
         <v>30</v>
       </c>
-      <c r="AG2" s="13">
+      <c r="AG2" s="7">
         <v>31</v>
       </c>
-      <c r="AH2" s="28"/>
+      <c r="AH2" s="30"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13">
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7">
         <v>32</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7">
         <v>12</v>
       </c>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13">
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7">
         <f>SUM(C3:AG3)</f>
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7">
         <f t="shared" ref="AH4:AH19" si="0">SUM(C4:AG4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7">
         <v>4</v>
       </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13">
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7">
         <v>4</v>
       </c>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13">
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="13">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7">
         <v>1</v>
       </c>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13">
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7">
         <v>1</v>
       </c>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13">
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7">
         <v>4</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="7">
         <v>4</v>
       </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="13">
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="13">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7">
         <v>1</v>
       </c>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13">
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+      <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="A16" s="7">
         <v>14</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
+      <c r="A17" s="7">
         <v>15</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7">
         <v>4</v>
       </c>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="13">
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+      <c r="A18" s="7">
         <v>16</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="13">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
+      <c r="A19" s="7">
         <v>17</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="13">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
+      <c r="A20" s="7">
         <v>18</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="14"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+      <c r="A21" s="7">
         <v>19</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="14"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="14"/>
-      <c r="AG21" s="14"/>
-      <c r="AH21" s="14"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
+      <c r="A22" s="7">
         <v>20</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="14"/>
-      <c r="Z22" s="14"/>
-      <c r="AA22" s="14"/>
-      <c r="AB22" s="14"/>
-      <c r="AC22" s="14"/>
-      <c r="AD22" s="14"/>
-      <c r="AE22" s="14"/>
-      <c r="AF22" s="14"/>
-      <c r="AG22" s="14"/>
-      <c r="AH22" s="14"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2485,1049 +2512,1051 @@
   <dimension ref="A1:AH23"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" style="16" customWidth="1"/>
-    <col min="3" max="34" width="5.28515625" style="16" customWidth="1"/>
-    <col min="35" max="16384" width="8.85546875" style="16"/>
+    <col min="1" max="1" width="6.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="10" customWidth="1"/>
+    <col min="3" max="34" width="5.28515625" style="10" customWidth="1"/>
+    <col min="35" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="13">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="7">
         <v>2</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="7">
         <v>3</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="7">
         <v>4</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="7">
         <v>5</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="7">
         <v>6</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="7">
         <v>7</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="7">
         <v>8</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="7">
         <v>9</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="7">
         <v>10</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="7">
         <v>11</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="7">
         <v>12</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="7">
         <v>13</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="7">
         <v>14</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="7">
         <v>15</v>
       </c>
-      <c r="R3" s="13">
+      <c r="R3" s="7">
         <v>16</v>
       </c>
-      <c r="S3" s="13">
+      <c r="S3" s="7">
         <v>17</v>
       </c>
-      <c r="T3" s="13">
+      <c r="T3" s="7">
         <v>18</v>
       </c>
-      <c r="U3" s="13">
+      <c r="U3" s="7">
         <v>19</v>
       </c>
-      <c r="V3" s="13">
+      <c r="V3" s="7">
         <v>20</v>
       </c>
-      <c r="W3" s="13">
+      <c r="W3" s="7">
         <v>21</v>
       </c>
-      <c r="X3" s="13">
+      <c r="X3" s="7">
         <v>22</v>
       </c>
-      <c r="Y3" s="13">
+      <c r="Y3" s="7">
         <v>23</v>
       </c>
-      <c r="Z3" s="13">
+      <c r="Z3" s="7">
         <v>24</v>
       </c>
-      <c r="AA3" s="13">
+      <c r="AA3" s="7">
         <v>25</v>
       </c>
-      <c r="AB3" s="13">
+      <c r="AB3" s="7">
         <v>26</v>
       </c>
-      <c r="AC3" s="13">
+      <c r="AC3" s="7">
         <v>27</v>
       </c>
-      <c r="AD3" s="13">
+      <c r="AD3" s="7">
         <v>28</v>
       </c>
-      <c r="AE3" s="13">
+      <c r="AE3" s="7">
         <v>29</v>
       </c>
-      <c r="AF3" s="13">
+      <c r="AF3" s="7">
         <v>30</v>
       </c>
-      <c r="AG3" s="13">
+      <c r="AG3" s="7">
         <v>31</v>
       </c>
-      <c r="AH3" s="28"/>
+      <c r="AH3" s="30"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13">
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13">
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7">
         <v>36</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13">
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7">
         <v>5</v>
       </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13">
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7">
         <f>SUM(C4:AG4)</f>
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7">
         <v>7</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="7">
         <v>16</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="7">
         <v>2</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13">
+      <c r="J5" s="7"/>
+      <c r="K5" s="7">
         <v>10</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13">
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7">
         <v>10</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="7">
         <v>1</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="7">
         <v>20</v>
       </c>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13">
+      <c r="Q5" s="7">
+        <v>3</v>
+      </c>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7">
         <f t="shared" ref="AH5:AH18" si="0">SUM(C5:AG5)</f>
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="13">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="13">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="13">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+      <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="A16" s="7">
         <v>14</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
+      <c r="A17" s="7">
         <v>15</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="13">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+      <c r="A18" s="7">
         <v>16</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="13">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="13"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="13"/>
-      <c r="AF20" s="13"/>
-      <c r="AG20" s="13"/>
-      <c r="AH20" s="13"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
-      <c r="AF21" s="13"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="13"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="13"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="13"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="13"/>
-      <c r="AF23" s="13"/>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="13"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3551,993 +3580,993 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="16" customWidth="1"/>
-    <col min="3" max="34" width="5.28515625" style="16" customWidth="1"/>
-    <col min="35" max="16384" width="8.85546875" style="16"/>
+    <col min="1" max="1" width="6.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="10" customWidth="1"/>
+    <col min="3" max="34" width="5.28515625" style="10" customWidth="1"/>
+    <col min="35" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="13">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="7">
         <v>1</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="7">
         <v>2</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="7">
         <v>3</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="7">
         <v>4</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="7">
         <v>5</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="7">
         <v>6</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="7">
         <v>7</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="7">
         <v>8</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="7">
         <v>9</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="7">
         <v>10</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="7">
         <v>11</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="7">
         <v>12</v>
       </c>
-      <c r="O2" s="13">
+      <c r="O2" s="7">
         <v>13</v>
       </c>
-      <c r="P2" s="13">
+      <c r="P2" s="7">
         <v>14</v>
       </c>
-      <c r="Q2" s="13">
+      <c r="Q2" s="7">
         <v>15</v>
       </c>
-      <c r="R2" s="13">
+      <c r="R2" s="7">
         <v>16</v>
       </c>
-      <c r="S2" s="13">
+      <c r="S2" s="7">
         <v>17</v>
       </c>
-      <c r="T2" s="13">
+      <c r="T2" s="7">
         <v>18</v>
       </c>
-      <c r="U2" s="13">
+      <c r="U2" s="7">
         <v>19</v>
       </c>
-      <c r="V2" s="13">
+      <c r="V2" s="7">
         <v>20</v>
       </c>
-      <c r="W2" s="13">
+      <c r="W2" s="7">
         <v>21</v>
       </c>
-      <c r="X2" s="13">
+      <c r="X2" s="7">
         <v>22</v>
       </c>
-      <c r="Y2" s="13">
+      <c r="Y2" s="7">
         <v>23</v>
       </c>
-      <c r="Z2" s="13">
+      <c r="Z2" s="7">
         <v>24</v>
       </c>
-      <c r="AA2" s="13">
+      <c r="AA2" s="7">
         <v>25</v>
       </c>
-      <c r="AB2" s="13">
+      <c r="AB2" s="7">
         <v>26</v>
       </c>
-      <c r="AC2" s="13">
+      <c r="AC2" s="7">
         <v>27</v>
       </c>
-      <c r="AD2" s="13">
+      <c r="AD2" s="7">
         <v>28</v>
       </c>
-      <c r="AE2" s="13">
+      <c r="AE2" s="7">
         <v>29</v>
       </c>
-      <c r="AF2" s="13">
+      <c r="AF2" s="7">
         <v>30</v>
       </c>
-      <c r="AG2" s="13">
+      <c r="AG2" s="7">
         <v>31</v>
       </c>
-      <c r="AH2" s="28"/>
+      <c r="AH2" s="30"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13">
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7">
         <f>SUM(C3:AG3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7">
         <f t="shared" ref="AH4:AH18" si="0">SUM(C4:AG4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="13">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="13">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="13">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+      <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="A16" s="7">
         <v>14</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
+      <c r="A17" s="7">
         <v>15</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="13">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+      <c r="A18" s="7">
         <v>16</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="13">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="13"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="13"/>
-      <c r="AF20" s="13"/>
-      <c r="AG20" s="13"/>
-      <c r="AH20" s="13"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
-      <c r="AF21" s="13"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="13"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="13"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4552,356 +4581,428 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C51F44-131D-46D9-8F20-A11BD47AE60F}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="8" customWidth="1"/>
-    <col min="3" max="4" width="15.7109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="15.7109375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="22" customWidth="1"/>
+    <col min="4" max="5" width="15.7109375" style="22" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="28" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="11"/>
+      <c r="G1" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="30">
+      <c r="A2" s="34">
         <v>45662</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="19" t="s">
         <v>22</v>
       </c>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="18"/>
+      <c r="D3" s="19">
         <v>32</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="19" t="s">
         <v>17</v>
       </c>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19">
         <v>10</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="19" t="s">
         <v>19</v>
       </c>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9">
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19">
         <v>1</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="19" t="s">
         <v>22</v>
       </c>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
+      <c r="A6" s="34">
         <v>45663</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19">
         <v>6</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="19" t="s">
         <v>19</v>
       </c>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19">
         <v>1</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="19" t="s">
         <v>19</v>
       </c>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
+      <c r="A8" s="34">
         <v>45664</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="18"/>
+      <c r="D8" s="19">
         <v>4</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="19"/>
+      <c r="F8" s="19" t="s">
         <v>17</v>
       </c>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19">
         <v>2</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="19" t="s">
         <v>15</v>
       </c>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="18">
         <v>45665</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19">
         <v>10</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="19" t="s">
         <v>17</v>
       </c>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="18">
         <v>45666</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20">
+      <c r="C11" s="19"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21">
         <v>3</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="F11" s="21" t="s">
         <v>50</v>
       </c>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="18">
         <v>45669</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19">
         <v>10</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="19" t="s">
         <v>49</v>
       </c>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
+      <c r="A13" s="34">
         <v>45670</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19">
         <v>5</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="19"/>
+      <c r="F13" s="19" t="s">
         <v>52</v>
       </c>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="34"/>
+      <c r="B14" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9">
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19">
         <v>1</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="F14" s="19" t="s">
         <v>52</v>
       </c>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
+      <c r="A15" s="34">
         <v>45671</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9">
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19">
         <v>10</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="F15" s="19" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="9" t="s">
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
+      <c r="B16" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19">
         <v>10</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="F16" s="19" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="32">
+        <v>45672</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19">
+        <v>3</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="33"/>
+      <c r="B18" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="19">
+        <v>16</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E7" xr:uid="{171653DB-B967-4059-9CE3-FD13B7B63DBC}"/>
-  <mergeCells count="5">
+  <autoFilter ref="A1:F7" xr:uid="{171653DB-B967-4059-9CE3-FD13B7B63DBC}"/>
+  <mergeCells count="6">
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:E1000">
+  <conditionalFormatting sqref="D2:F999">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>ISNUMBER(SEARCH("Đã trả",$E2))</formula>
+      <formula>ISNUMBER(SEARCH("Đã trả",$F2))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>ISNUMBER(SEARCH("Chưa trả",$E2))</formula>
+      <formula>ISNUMBER(SEARCH("Chưa trả",$F2))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4912,8 +5013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1D2FD3-91FF-42CA-8178-C2AD22F246DD}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView showZeros="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4924,16 +5025,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -5007,18 +5108,18 @@
       </c>
       <c r="E4" s="4">
         <f>SUM('Nhập xuất tồn'!E4)</f>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F4" s="4">
         <f>SUM(C4+D4-E4)</f>
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G4" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" s="4">
         <f>SUM(F4-G4)</f>
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5393,37 +5494,37 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="18">
+      <c r="B18" s="36"/>
+      <c r="C18" s="12">
         <f>SUM(C3:C17)</f>
         <v>157</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="12">
         <f t="shared" ref="D18:F18" si="2">SUM(D3:D17)</f>
         <v>67</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="12">
         <f t="shared" si="2"/>
-        <v>108</v>
-      </c>
-      <c r="F18" s="18">
+        <v>111</v>
+      </c>
+      <c r="F18" s="12">
         <f t="shared" si="2"/>
-        <v>116</v>
-      </c>
-      <c r="G18" s="19">
+        <v>113</v>
+      </c>
+      <c r="G18" s="13">
         <f t="shared" ref="G18" si="3">SUM(G3:G17)</f>
-        <v>11</v>
-      </c>
-      <c r="H18" s="18">
+        <v>12</v>
+      </c>
+      <c r="H18" s="12">
         <f t="shared" ref="H18" si="4">SUM(H3:H17)</f>
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="17"/>
+      <c r="F19" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97F2D98-95C4-40B2-B7DF-9FE62E69C3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF43188-86D4-42A4-A2D8-3065DBCE16FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="63">
   <si>
     <t>VNSH01</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>Thiết bị anh Tuấn BG Thảo đã đổi trước, xử lý xong trả kho</t>
+  </si>
+  <si>
+    <t>ĐL Tiến Long</t>
+  </si>
+  <si>
+    <t>Đã trả (16/01/26)</t>
   </si>
 </sst>
 </file>
@@ -474,12 +480,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -488,6 +488,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -886,18 +892,18 @@
       </c>
       <c r="E4" s="4">
         <f>Xuất!AH5+Huỷ!AH4</f>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F4" s="4">
         <f>C4+D4-E4</f>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G4" s="6">
         <v>11</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H22" si="0">F4-G4</f>
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1435,11 +1441,11 @@
       </c>
       <c r="E23" s="4">
         <f t="shared" si="2"/>
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="2"/>
@@ -1447,7 +1453,7 @@
       </c>
       <c r="H23" s="4">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2511,8 +2517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH23"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2788,7 +2794,9 @@
       <c r="Q5" s="7">
         <v>3</v>
       </c>
-      <c r="R5" s="7"/>
+      <c r="R5" s="7">
+        <v>2</v>
+      </c>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
@@ -2806,7 +2814,7 @@
       <c r="AG5" s="7"/>
       <c r="AH5" s="7">
         <f t="shared" ref="AH5:AH18" si="0">SUM(C5:AG5)</f>
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -4583,8 +4591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C51F44-131D-46D9-8F20-A11BD47AE60F}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4623,8 +4631,8 @@
       <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="34">
-        <v>45662</v>
+      <c r="A2" s="32">
+        <v>46027</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>25</v>
@@ -4640,7 +4648,7 @@
       <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="18" t="s">
         <v>18</v>
       </c>
@@ -4655,7 +4663,7 @@
       <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="19" t="s">
         <v>24</v>
       </c>
@@ -4670,7 +4678,7 @@
       <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="19" t="s">
         <v>23</v>
       </c>
@@ -4685,8 +4693,8 @@
       <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="34">
-        <v>45663</v>
+      <c r="A6" s="32">
+        <v>46028</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>21</v>
@@ -4702,7 +4710,7 @@
       <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="19" t="s">
         <v>20</v>
       </c>
@@ -4717,8 +4725,8 @@
       <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
-        <v>45664</v>
+      <c r="A8" s="32">
+        <v>46029</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>18</v>
@@ -4734,7 +4742,7 @@
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="19" t="s">
         <v>16</v>
       </c>
@@ -4750,7 +4758,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
-        <v>45665</v>
+        <v>46030</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>29</v>
@@ -4767,7 +4775,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
-        <v>45666</v>
+        <v>46031</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>25</v>
@@ -4784,7 +4792,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
-        <v>45669</v>
+        <v>46034</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>29</v>
@@ -4800,8 +4808,8 @@
       <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="34">
-        <v>45670</v>
+      <c r="A13" s="32">
+        <v>46035</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>51</v>
@@ -4817,7 +4825,7 @@
       <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="19" t="s">
         <v>23</v>
       </c>
@@ -4832,8 +4840,8 @@
       <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="34">
-        <v>45671</v>
+      <c r="A15" s="32">
+        <v>46036</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>53</v>
@@ -4849,7 +4857,7 @@
       <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="19" t="s">
         <v>54</v>
       </c>
@@ -4864,8 +4872,8 @@
       <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="32">
-        <v>45672</v>
+      <c r="A17" s="35">
+        <v>46037</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>56</v>
@@ -4881,7 +4889,7 @@
       <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="19" t="s">
         <v>29</v>
       </c>
@@ -4898,12 +4906,20 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="18">
+        <v>46038</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>61</v>
+      </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
+      <c r="E19" s="19">
+        <v>2</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>62</v>
+      </c>
       <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -5108,18 +5124,18 @@
       </c>
       <c r="E4" s="4">
         <f>SUM('Nhập xuất tồn'!E4)</f>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F4" s="4">
         <f>SUM(C4+D4-E4)</f>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G4" s="6">
         <v>12</v>
       </c>
       <c r="H4" s="4">
         <f>SUM(F4-G4)</f>
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5494,10 +5510,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="36"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="12">
         <f>SUM(C3:C17)</f>
         <v>157</v>
@@ -5508,11 +5524,11 @@
       </c>
       <c r="E18" s="12">
         <f t="shared" si="2"/>
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F18" s="12">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G18" s="13">
         <f t="shared" ref="G18" si="3">SUM(G3:G17)</f>
@@ -5520,7 +5536,7 @@
       </c>
       <c r="H18" s="12">
         <f t="shared" ref="H18" si="4">SUM(H3:H17)</f>
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">

--- a/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF43188-86D4-42A4-A2D8-3065DBCE16FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD644FB-19C0-4225-98DC-510B8F00B580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Xuất" sheetId="3" r:id="rId3"/>
     <sheet name="Huỷ" sheetId="4" r:id="rId4"/>
     <sheet name="Ghi chú" sheetId="5" r:id="rId5"/>
-    <sheet name="Chốt Kho" sheetId="6" r:id="rId6"/>
+    <sheet name="Chốt kho" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Ghi chú'!$A$1:$F$7</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="66">
   <si>
     <t>VNSH01</t>
   </si>
@@ -222,6 +222,15 @@
   </si>
   <si>
     <t>Đã trả (16/01/26)</t>
+  </si>
+  <si>
+    <t>kl vnet</t>
+  </si>
+  <si>
+    <t>Đã trả (19/01/26)</t>
+  </si>
+  <si>
+    <t>Etuka</t>
   </si>
 </sst>
 </file>
@@ -295,7 +304,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -381,11 +390,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -480,20 +500,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -792,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,18 +915,18 @@
       </c>
       <c r="E4" s="4">
         <f>Xuất!AH5+Huỷ!AH4</f>
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F4" s="4">
         <f>C4+D4-E4</f>
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="G4" s="6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H22" si="0">F4-G4</f>
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1441,19 +1464,19 @@
       </c>
       <c r="E23" s="4">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="2"/>
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H23" s="4">
         <f t="shared" si="2"/>
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2517,8 +2540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH23"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2799,7 +2822,9 @@
       </c>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
+      <c r="U5" s="7">
+        <v>14</v>
+      </c>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
@@ -2814,7 +2839,7 @@
       <c r="AG5" s="7"/>
       <c r="AH5" s="7">
         <f t="shared" ref="AH5:AH18" si="0">SUM(C5:AG5)</f>
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -4592,7 +4617,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4631,7 +4656,7 @@
       <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="32">
+      <c r="A2" s="34">
         <v>46027</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -4648,7 +4673,7 @@
       <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="18" t="s">
         <v>18</v>
       </c>
@@ -4663,7 +4688,7 @@
       <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="19" t="s">
         <v>24</v>
       </c>
@@ -4678,7 +4703,7 @@
       <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="19" t="s">
         <v>23</v>
       </c>
@@ -4693,7 +4718,7 @@
       <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="A6" s="34">
         <v>46028</v>
       </c>
       <c r="B6" s="19" t="s">
@@ -4710,7 +4735,7 @@
       <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="19" t="s">
         <v>20</v>
       </c>
@@ -4725,7 +4750,7 @@
       <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="32">
+      <c r="A8" s="34">
         <v>46029</v>
       </c>
       <c r="B8" s="18" t="s">
@@ -4742,7 +4767,7 @@
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="19" t="s">
         <v>16</v>
       </c>
@@ -4808,7 +4833,7 @@
       <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
+      <c r="A13" s="34">
         <v>46035</v>
       </c>
       <c r="B13" s="19" t="s">
@@ -4825,7 +4850,7 @@
       <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="19" t="s">
         <v>23</v>
       </c>
@@ -4840,7 +4865,7 @@
       <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="32">
+      <c r="A15" s="34">
         <v>46036</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -4857,7 +4882,7 @@
       <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="19" t="s">
         <v>54</v>
       </c>
@@ -4872,7 +4897,7 @@
       <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="35">
+      <c r="A17" s="32">
         <v>46037</v>
       </c>
       <c r="B17" s="19" t="s">
@@ -4889,7 +4914,7 @@
       <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="19" t="s">
         <v>29</v>
       </c>
@@ -4923,39 +4948,65 @@
       <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="32">
+        <v>46041</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
+      <c r="E20" s="19">
+        <v>10</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="19" t="s">
+        <v>63</v>
+      </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
+      <c r="E21" s="19">
+        <v>1</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+      <c r="E22" s="19">
+        <v>1</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="19" t="s">
+        <v>65</v>
+      </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
+      <c r="E23" s="19">
+        <v>2</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -5005,7 +5056,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F7" xr:uid="{171653DB-B967-4059-9CE3-FD13B7B63DBC}"/>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -5030,7 +5082,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5124,18 +5176,18 @@
       </c>
       <c r="E4" s="4">
         <f>SUM('Nhập xuất tồn'!E4)</f>
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F4" s="4">
         <f>SUM(C4+D4-E4)</f>
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="G4" s="6">
         <v>12</v>
       </c>
       <c r="H4" s="4">
         <f>SUM(F4-G4)</f>
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5510,10 +5562,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="34"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="12">
         <f>SUM(C3:C17)</f>
         <v>157</v>
@@ -5524,11 +5576,11 @@
       </c>
       <c r="E18" s="12">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="F18" s="12">
         <f t="shared" si="2"/>
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="G18" s="13">
         <f t="shared" ref="G18" si="3">SUM(G3:G17)</f>
@@ -5536,7 +5588,7 @@
       </c>
       <c r="H18" s="12">
         <f t="shared" ref="H18" si="4">SUM(H3:H17)</f>
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">

--- a/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD644FB-19C0-4225-98DC-510B8F00B580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBA410D-CD49-4005-815D-50BF2DAEFE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1170" windowWidth="21600" windowHeight="11835" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="70">
   <si>
     <t>VNSH01</t>
   </si>
@@ -231,6 +231,18 @@
   </si>
   <si>
     <t>Etuka</t>
+  </si>
+  <si>
+    <t>Chưa trả</t>
+  </si>
+  <si>
+    <t>ĐL Anh Tuấn NB</t>
+  </si>
+  <si>
+    <t>Skytech</t>
+  </si>
+  <si>
+    <t>Đã trả (20/01/26)</t>
   </si>
 </sst>
 </file>
@@ -503,6 +515,9 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -510,9 +525,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -815,7 +827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
@@ -885,18 +897,18 @@
       </c>
       <c r="E3" s="4">
         <f>Xuất!AH4+Huỷ!AH3</f>
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F3" s="4">
         <f>C3+D3-E3</f>
-        <v>9</v>
+        <v>-11</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
       </c>
       <c r="H3" s="4">
         <f>F3-G3</f>
-        <v>8</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1464,11 +1476,11 @@
       </c>
       <c r="E23" s="4">
         <f t="shared" si="2"/>
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="2"/>
@@ -1476,7 +1488,7 @@
       </c>
       <c r="H23" s="4">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2541,7 +2553,7 @@
   <dimension ref="A1:AH23"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2762,7 +2774,9 @@
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
+      <c r="V4" s="7">
+        <v>20</v>
+      </c>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
@@ -2776,7 +2790,7 @@
       <c r="AG4" s="7"/>
       <c r="AH4" s="7">
         <f>SUM(C4:AG4)</f>
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -4616,8 +4630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C51F44-131D-46D9-8F20-A11BD47AE60F}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4656,7 +4670,7 @@
       <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="34">
+      <c r="A2" s="35">
         <v>46027</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -4673,7 +4687,7 @@
       <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="18" t="s">
         <v>18</v>
       </c>
@@ -4688,7 +4702,7 @@
       <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="19" t="s">
         <v>24</v>
       </c>
@@ -4703,7 +4717,7 @@
       <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="19" t="s">
         <v>23</v>
       </c>
@@ -4718,7 +4732,7 @@
       <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="34">
+      <c r="A6" s="35">
         <v>46028</v>
       </c>
       <c r="B6" s="19" t="s">
@@ -4735,7 +4749,7 @@
       <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="19" t="s">
         <v>20</v>
       </c>
@@ -4750,7 +4764,7 @@
       <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
+      <c r="A8" s="35">
         <v>46029</v>
       </c>
       <c r="B8" s="18" t="s">
@@ -4767,7 +4781,7 @@
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="19" t="s">
         <v>16</v>
       </c>
@@ -4833,7 +4847,7 @@
       <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="34">
+      <c r="A13" s="35">
         <v>46035</v>
       </c>
       <c r="B13" s="19" t="s">
@@ -4850,7 +4864,7 @@
       <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="19" t="s">
         <v>23</v>
       </c>
@@ -4865,7 +4879,7 @@
       <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="34">
+      <c r="A15" s="35">
         <v>46036</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -4882,7 +4896,7 @@
       <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="19" t="s">
         <v>54</v>
       </c>
@@ -4914,7 +4928,7 @@
       <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="19" t="s">
         <v>29</v>
       </c>
@@ -4965,7 +4979,7 @@
       <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="19" t="s">
         <v>63</v>
       </c>
@@ -4980,7 +4994,7 @@
       <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="19" t="s">
         <v>23</v>
       </c>
@@ -4995,7 +5009,7 @@
       <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="19" t="s">
         <v>65</v>
       </c>
@@ -5010,30 +5024,50 @@
       <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
+      <c r="A24" s="32">
+        <v>46315</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>67</v>
+      </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+      <c r="E24" s="19">
+        <v>10</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>66</v>
+      </c>
       <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="19" t="s">
+        <v>16</v>
+      </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="E25" s="19">
+        <v>2</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>66</v>
+      </c>
       <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="19" t="s">
+        <v>68</v>
+      </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="E26" s="19">
+        <v>1</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>69</v>
+      </c>
       <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -5056,7 +5090,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F7" xr:uid="{171653DB-B967-4059-9CE3-FD13B7B63DBC}"/>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A2:A5"/>
@@ -5064,6 +5098,7 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A24:A26"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:F999">
     <cfRule type="expression" dxfId="1" priority="1">
@@ -5082,7 +5117,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5146,18 +5181,18 @@
       </c>
       <c r="E3" s="4">
         <f>SUM('Nhập xuất tồn'!E3)</f>
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F3" s="4">
         <f>SUM(C3+D3-E3)</f>
-        <v>9</v>
+        <v>-11</v>
       </c>
       <c r="G3" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="4">
         <f>SUM(F3-G3)</f>
-        <v>9</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5576,19 +5611,19 @@
       </c>
       <c r="E18" s="12">
         <f t="shared" si="2"/>
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="F18" s="12">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="G18" s="13">
         <f t="shared" ref="G18" si="3">SUM(G3:G17)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H18" s="12">
         <f t="shared" ref="H18" si="4">SUM(H3:H17)</f>
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">

--- a/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBA410D-CD49-4005-815D-50BF2DAEFE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8787AE-0BFB-4405-BDDE-7C7487145269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1170" windowWidth="21600" windowHeight="11835" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="70">
   <si>
     <t>VNSH01</t>
   </si>
@@ -233,16 +233,16 @@
     <t>Etuka</t>
   </si>
   <si>
+    <t>ĐL Anh Tuấn NB</t>
+  </si>
+  <si>
+    <t>Skytech</t>
+  </si>
+  <si>
+    <t>Đã trả (20/01/26)</t>
+  </si>
+  <si>
     <t>Chưa trả</t>
-  </si>
-  <si>
-    <t>ĐL Anh Tuấn NB</t>
-  </si>
-  <si>
-    <t>Skytech</t>
-  </si>
-  <si>
-    <t>Đã trả (20/01/26)</t>
   </si>
 </sst>
 </file>
@@ -893,22 +893,22 @@
       </c>
       <c r="D3" s="4">
         <f>Nhập!AH3</f>
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="E3" s="4">
         <f>Xuất!AH4+Huỷ!AH3</f>
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F3" s="4">
         <f>C3+D3-E3</f>
-        <v>-11</v>
+        <v>21</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
       </c>
       <c r="H3" s="4">
         <f>F3-G3</f>
-        <v>-12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -927,18 +927,18 @@
       </c>
       <c r="E4" s="4">
         <f>Xuất!AH5+Huỷ!AH4</f>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F4" s="4">
         <f>C4+D4-E4</f>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G4" s="6">
         <v>14</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H22" si="0">F4-G4</f>
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1472,15 +1472,15 @@
       </c>
       <c r="D23" s="4">
         <f t="shared" ref="D23:H23" si="2">SUM(D3:D22)</f>
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="2"/>
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="2"/>
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="2"/>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="H23" s="4">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1524,7 +1524,7 @@
   <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,7 +1707,9 @@
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
+      <c r="V3" s="7">
+        <v>20</v>
+      </c>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
@@ -1721,7 +1723,7 @@
       <c r="AG3" s="7"/>
       <c r="AH3" s="7">
         <f>SUM(C3:AG3)</f>
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
@@ -2553,7 +2555,7 @@
   <dimension ref="A1:AH23"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2775,7 +2777,7 @@
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
@@ -2790,7 +2792,7 @@
       <c r="AG4" s="7"/>
       <c r="AH4" s="7">
         <f>SUM(C4:AG4)</f>
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -2839,7 +2841,9 @@
       <c r="U5" s="7">
         <v>14</v>
       </c>
-      <c r="V5" s="7"/>
+      <c r="V5" s="7">
+        <v>3</v>
+      </c>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
@@ -2853,7 +2857,7 @@
       <c r="AG5" s="7"/>
       <c r="AH5" s="7">
         <f t="shared" ref="AH5:AH18" si="0">SUM(C5:AG5)</f>
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -4630,8 +4634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C51F44-131D-46D9-8F20-A11BD47AE60F}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5025,18 +5029,18 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="32">
-        <v>46315</v>
+        <v>46042</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G24" s="20"/>
     </row>
@@ -5051,14 +5055,14 @@
         <v>2</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="34"/>
       <c r="B26" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -5066,17 +5070,25 @@
         <v>1</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="18">
+        <v>46043</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
+      <c r="E27" s="19">
+        <v>4</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>69</v>
+      </c>
       <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -5091,6 +5103,7 @@
   </sheetData>
   <autoFilter ref="A1:F7" xr:uid="{171653DB-B967-4059-9CE3-FD13B7B63DBC}"/>
   <mergeCells count="8">
+    <mergeCell ref="A24:A26"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A2:A5"/>
@@ -5098,7 +5111,6 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A24:A26"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:F999">
     <cfRule type="expression" dxfId="1" priority="1">
@@ -5117,7 +5129,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5177,22 +5189,22 @@
       </c>
       <c r="D3" s="4">
         <f>SUM('Nhập xuất tồn'!D3)</f>
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="E3" s="4">
         <f>SUM('Nhập xuất tồn'!E3)</f>
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F3" s="4">
         <f>SUM(C3+D3-E3)</f>
-        <v>-11</v>
+        <v>21</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
       </c>
       <c r="H3" s="4">
         <f>SUM(F3-G3)</f>
-        <v>-12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5211,18 +5223,18 @@
       </c>
       <c r="E4" s="4">
         <f>SUM('Nhập xuất tồn'!E4)</f>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F4" s="4">
         <f>SUM(C4+D4-E4)</f>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G4" s="6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H4" s="4">
         <f>SUM(F4-G4)</f>
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5607,23 +5619,23 @@
       </c>
       <c r="D18" s="12">
         <f t="shared" ref="D18:F18" si="2">SUM(D3:D17)</f>
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="E18" s="12">
         <f t="shared" si="2"/>
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F18" s="12">
         <f t="shared" si="2"/>
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="G18" s="13">
         <f t="shared" ref="G18" si="3">SUM(G3:G17)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H18" s="12">
         <f t="shared" ref="H18" si="4">SUM(H3:H17)</f>
-        <v>64</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">

--- a/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8787AE-0BFB-4405-BDDE-7C7487145269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6556E8AE-31BE-41CF-ACDD-B9689B9F52CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="71">
   <si>
     <t>VNSH01</t>
   </si>
@@ -242,7 +242,10 @@
     <t>Đã trả (20/01/26)</t>
   </si>
   <si>
-    <t>Chưa trả</t>
+    <t>Anh Dân Thái Bình</t>
+  </si>
+  <si>
+    <t>Đã trả (21/01/26)</t>
   </si>
 </sst>
 </file>
@@ -4632,10 +4635,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C51F44-131D-46D9-8F20-A11BD47AE60F}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5075,7 +5078,7 @@
       <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="18">
+      <c r="A27" s="35">
         <v>46043</v>
       </c>
       <c r="B27" s="19" t="s">
@@ -5087,22 +5090,92 @@
         <v>4</v>
       </c>
       <c r="F27" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="35"/>
+      <c r="B28" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="G27" s="20"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
+      <c r="E28" s="19">
+        <v>1</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="20"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="20"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F7" xr:uid="{171653DB-B967-4059-9CE3-FD13B7B63DBC}"/>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A27:A28"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A17:A18"/>

--- a/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6556E8AE-31BE-41CF-ACDD-B9689B9F52CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F556A63-CF86-4AE0-9396-4A07AF83E505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="72">
   <si>
     <t>VNSH01</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>Đã trả (21/01/26)</t>
+  </si>
+  <si>
+    <t>Chưa trả</t>
   </si>
 </sst>
 </file>
@@ -515,6 +518,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -522,9 +528,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -830,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView showZeros="0" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,18 +933,18 @@
       </c>
       <c r="E4" s="4">
         <f>Xuất!AH5+Huỷ!AH4</f>
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F4" s="4">
         <f>C4+D4-E4</f>
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G4" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H22" si="0">F4-G4</f>
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1479,19 +1482,19 @@
       </c>
       <c r="E23" s="4">
         <f t="shared" si="2"/>
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="2"/>
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H23" s="4">
         <f t="shared" si="2"/>
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2558,7 +2561,7 @@
   <dimension ref="A1:AH23"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2847,7 +2850,9 @@
       <c r="V5" s="7">
         <v>3</v>
       </c>
-      <c r="W5" s="7"/>
+      <c r="W5" s="7">
+        <v>5</v>
+      </c>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
@@ -2860,7 +2865,7 @@
       <c r="AG5" s="7"/>
       <c r="AH5" s="7">
         <f t="shared" ref="AH5:AH18" si="0">SUM(C5:AG5)</f>
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -4638,7 +4643,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4677,7 +4682,7 @@
       <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="35">
+      <c r="A2" s="32">
         <v>46027</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -4739,7 +4744,7 @@
       <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="35">
+      <c r="A6" s="32">
         <v>46028</v>
       </c>
       <c r="B6" s="19" t="s">
@@ -4756,7 +4761,7 @@
       <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="19" t="s">
         <v>20</v>
       </c>
@@ -4771,7 +4776,7 @@
       <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="35">
+      <c r="A8" s="32">
         <v>46029</v>
       </c>
       <c r="B8" s="18" t="s">
@@ -4788,7 +4793,7 @@
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="19" t="s">
         <v>16</v>
       </c>
@@ -4854,7 +4859,7 @@
       <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="35">
+      <c r="A13" s="32">
         <v>46035</v>
       </c>
       <c r="B13" s="19" t="s">
@@ -4871,7 +4876,7 @@
       <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="19" t="s">
         <v>23</v>
       </c>
@@ -4886,7 +4891,7 @@
       <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="35">
+      <c r="A15" s="32">
         <v>46036</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -4903,7 +4908,7 @@
       <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="19" t="s">
         <v>54</v>
       </c>
@@ -4918,7 +4923,7 @@
       <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="32">
+      <c r="A17" s="33">
         <v>46037</v>
       </c>
       <c r="B17" s="19" t="s">
@@ -4935,7 +4940,7 @@
       <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="19" t="s">
         <v>29</v>
       </c>
@@ -4969,7 +4974,7 @@
       <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="32">
+      <c r="A20" s="33">
         <v>46041</v>
       </c>
       <c r="B20" s="19" t="s">
@@ -4986,7 +4991,7 @@
       <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="19" t="s">
         <v>63</v>
       </c>
@@ -5001,7 +5006,7 @@
       <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="19" t="s">
         <v>23</v>
       </c>
@@ -5016,7 +5021,7 @@
       <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="19" t="s">
         <v>65</v>
       </c>
@@ -5031,7 +5036,7 @@
       <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="32">
+      <c r="A24" s="33">
         <v>46042</v>
       </c>
       <c r="B24" s="19" t="s">
@@ -5048,7 +5053,7 @@
       <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="19" t="s">
         <v>16</v>
       </c>
@@ -5063,7 +5068,7 @@
       <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="19" t="s">
         <v>67</v>
       </c>
@@ -5078,7 +5083,7 @@
       <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="35">
+      <c r="A27" s="32">
         <v>46043</v>
       </c>
       <c r="B27" s="19" t="s">
@@ -5095,7 +5100,7 @@
       <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="19" t="s">
         <v>69</v>
       </c>
@@ -5110,12 +5115,22 @@
       <c r="G28" s="20"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
+      <c r="A29" s="18">
+        <v>46317</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>66</v>
+      </c>
       <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+      <c r="D29" s="19">
+        <v>8</v>
+      </c>
+      <c r="E29" s="19">
+        <v>18</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>71</v>
+      </c>
       <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -5202,7 +5217,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5296,18 +5311,18 @@
       </c>
       <c r="E4" s="4">
         <f>SUM('Nhập xuất tồn'!E4)</f>
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F4" s="4">
         <f>SUM(C4+D4-E4)</f>
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G4" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="4">
         <f>SUM(F4-G4)</f>
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5696,19 +5711,19 @@
       </c>
       <c r="E18" s="12">
         <f t="shared" si="2"/>
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F18" s="12">
         <f t="shared" si="2"/>
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G18" s="13">
         <f t="shared" ref="G18" si="3">SUM(G3:G17)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" s="12">
         <f t="shared" ref="H18" si="4">SUM(H3:H17)</f>
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">

--- a/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F556A63-CF86-4AE0-9396-4A07AF83E505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD86A1A2-5DF5-4F5B-9403-226982B7C767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -248,7 +248,7 @@
     <t>Đã trả (21/01/26)</t>
   </si>
   <si>
-    <t>Chưa trả</t>
+    <t>Đã trả (22/01/26)</t>
   </si>
 </sst>
 </file>
@@ -903,18 +903,18 @@
       </c>
       <c r="E3" s="4">
         <f>Xuất!AH4+Huỷ!AH3</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F3" s="4">
         <f>C3+D3-E3</f>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
       </c>
       <c r="H3" s="4">
         <f>F3-G3</f>
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -933,18 +933,18 @@
       </c>
       <c r="E4" s="4">
         <f>Xuất!AH5+Huỷ!AH4</f>
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="F4" s="4">
         <f>C4+D4-E4</f>
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G4" s="6">
         <v>15</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H22" si="0">F4-G4</f>
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1482,11 +1482,11 @@
       </c>
       <c r="E23" s="4">
         <f t="shared" si="2"/>
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="2"/>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="H23" s="4">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2560,8 +2560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH23"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="W29" sqref="W29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2786,7 +2786,9 @@
         <v>8</v>
       </c>
       <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
+      <c r="X4" s="7">
+        <v>8</v>
+      </c>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
@@ -2798,7 +2800,7 @@
       <c r="AG4" s="7"/>
       <c r="AH4" s="7">
         <f>SUM(C4:AG4)</f>
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -2853,7 +2855,9 @@
       <c r="W5" s="7">
         <v>5</v>
       </c>
-      <c r="X5" s="7"/>
+      <c r="X5" s="7">
+        <v>18</v>
+      </c>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
@@ -2865,7 +2869,7 @@
       <c r="AG5" s="7"/>
       <c r="AH5" s="7">
         <f t="shared" ref="AH5:AH18" si="0">SUM(C5:AG5)</f>
-        <v>93</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -4642,8 +4646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C51F44-131D-46D9-8F20-A11BD47AE60F}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5217,7 +5221,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5281,18 +5285,18 @@
       </c>
       <c r="E3" s="4">
         <f>SUM('Nhập xuất tồn'!E3)</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F3" s="4">
         <f>SUM(C3+D3-E3)</f>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
       </c>
       <c r="H3" s="4">
         <f>SUM(F3-G3)</f>
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5311,18 +5315,18 @@
       </c>
       <c r="E4" s="4">
         <f>SUM('Nhập xuất tồn'!E4)</f>
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="F4" s="4">
         <f>SUM(C4+D4-E4)</f>
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G4" s="6">
         <v>15</v>
       </c>
       <c r="H4" s="4">
         <f>SUM(F4-G4)</f>
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5711,11 +5715,11 @@
       </c>
       <c r="E18" s="12">
         <f t="shared" si="2"/>
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="F18" s="12">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="G18" s="13">
         <f t="shared" ref="G18" si="3">SUM(G3:G17)</f>
@@ -5723,7 +5727,7 @@
       </c>
       <c r="H18" s="12">
         <f t="shared" ref="H18" si="4">SUM(H3:H17)</f>
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">

--- a/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD86A1A2-5DF5-4F5B-9403-226982B7C767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AAF9E1-24E2-44E3-97AB-14C9AD497DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="74">
   <si>
     <t>VNSH01</t>
   </si>
@@ -249,6 +249,12 @@
   </si>
   <si>
     <t>Đã trả (22/01/26)</t>
+  </si>
+  <si>
+    <t>GPS Global</t>
+  </si>
+  <si>
+    <t>Đã trả (23/01/26)</t>
   </si>
 </sst>
 </file>
@@ -929,22 +935,22 @@
       </c>
       <c r="D4" s="4">
         <f>Nhập!AH4</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E4" s="4">
         <f>Xuất!AH5+Huỷ!AH4</f>
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="F4" s="4">
         <f>C4+D4-E4</f>
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="G4" s="6">
         <v>15</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H22" si="0">F4-G4</f>
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1478,15 +1484,15 @@
       </c>
       <c r="D23" s="4">
         <f t="shared" ref="D23:H23" si="2">SUM(D3:D22)</f>
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="2"/>
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="2"/>
@@ -1494,7 +1500,7 @@
       </c>
       <c r="H23" s="4">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1529,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH22"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1761,7 +1767,9 @@
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
+      <c r="Y4" s="7">
+        <v>72</v>
+      </c>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
@@ -1772,7 +1780,7 @@
       <c r="AG4" s="7"/>
       <c r="AH4" s="7">
         <f t="shared" ref="AH4:AH19" si="0">SUM(C4:AG4)</f>
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -2560,8 +2568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH23"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="W29" sqref="W29"/>
+    <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2858,7 +2866,9 @@
       <c r="X5" s="7">
         <v>18</v>
       </c>
-      <c r="Y5" s="7"/>
+      <c r="Y5" s="7">
+        <v>22</v>
+      </c>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
@@ -2869,7 +2879,7 @@
       <c r="AG5" s="7"/>
       <c r="AH5" s="7">
         <f t="shared" ref="AH5:AH18" si="0">SUM(C5:AG5)</f>
-        <v>111</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -4647,7 +4657,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="A30" sqref="A30:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5138,21 +5148,35 @@
       <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
+      <c r="A30" s="33">
+        <v>46045</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>72</v>
+      </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
+      <c r="E30" s="19">
+        <v>12</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>73</v>
+      </c>
       <c r="G30" s="20"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
+      <c r="E31" s="19">
+        <v>10</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>73</v>
+      </c>
       <c r="G31" s="20"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -5193,7 +5217,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F7" xr:uid="{171653DB-B967-4059-9CE3-FD13B7B63DBC}"/>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="A30:A31"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A20:A23"/>
@@ -5311,22 +5336,22 @@
       </c>
       <c r="D4" s="4">
         <f>SUM('Nhập xuất tồn'!D4)</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E4" s="4">
         <f>SUM('Nhập xuất tồn'!E4)</f>
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="F4" s="4">
         <f>SUM(C4+D4-E4)</f>
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="G4" s="6">
         <v>15</v>
       </c>
       <c r="H4" s="4">
         <f>SUM(F4-G4)</f>
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5711,15 +5736,15 @@
       </c>
       <c r="D18" s="12">
         <f t="shared" ref="D18:F18" si="2">SUM(D3:D17)</f>
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="E18" s="12">
         <f t="shared" si="2"/>
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="F18" s="12">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="G18" s="13">
         <f t="shared" ref="G18" si="3">SUM(G3:G17)</f>
@@ -5727,7 +5752,7 @@
       </c>
       <c r="H18" s="12">
         <f t="shared" ref="H18" si="4">SUM(H3:H17)</f>
-        <v>59</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">

--- a/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AAF9E1-24E2-44E3-97AB-14C9AD497DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A3AEE5-FF92-45CA-B416-3C3820FB6334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="76">
   <si>
     <t>VNSH01</t>
   </si>
@@ -255,6 +255,12 @@
   </si>
   <si>
     <t>Đã trả (23/01/26)</t>
+  </si>
+  <si>
+    <t>Đã trả (26/01/26)</t>
+  </si>
+  <si>
+    <t>Gara anh Tập</t>
   </si>
 </sst>
 </file>
@@ -524,19 +530,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1535,7 +1541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH22"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
@@ -4656,8 +4662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C51F44-131D-46D9-8F20-A11BD47AE60F}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:A31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4696,7 +4702,7 @@
       <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="32">
+      <c r="A2" s="34">
         <v>46027</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -4713,7 +4719,7 @@
       <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="18" t="s">
         <v>18</v>
       </c>
@@ -4728,7 +4734,7 @@
       <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="19" t="s">
         <v>24</v>
       </c>
@@ -4743,7 +4749,7 @@
       <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="19" t="s">
         <v>23</v>
       </c>
@@ -4758,7 +4764,7 @@
       <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="A6" s="34">
         <v>46028</v>
       </c>
       <c r="B6" s="19" t="s">
@@ -4775,7 +4781,7 @@
       <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="19" t="s">
         <v>20</v>
       </c>
@@ -4790,7 +4796,7 @@
       <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="32">
+      <c r="A8" s="34">
         <v>46029</v>
       </c>
       <c r="B8" s="18" t="s">
@@ -4807,7 +4813,7 @@
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="19" t="s">
         <v>16</v>
       </c>
@@ -4873,7 +4879,7 @@
       <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
+      <c r="A13" s="34">
         <v>46035</v>
       </c>
       <c r="B13" s="19" t="s">
@@ -4890,7 +4896,7 @@
       <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="19" t="s">
         <v>23</v>
       </c>
@@ -4905,7 +4911,7 @@
       <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="32">
+      <c r="A15" s="34">
         <v>46036</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -4922,7 +4928,7 @@
       <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="19" t="s">
         <v>54</v>
       </c>
@@ -4937,7 +4943,7 @@
       <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="33">
+      <c r="A17" s="32">
         <v>46037</v>
       </c>
       <c r="B17" s="19" t="s">
@@ -4954,7 +4960,7 @@
       <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="19" t="s">
         <v>29</v>
       </c>
@@ -4988,7 +4994,7 @@
       <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="33">
+      <c r="A20" s="32">
         <v>46041</v>
       </c>
       <c r="B20" s="19" t="s">
@@ -5005,7 +5011,7 @@
       <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="19" t="s">
         <v>63</v>
       </c>
@@ -5020,7 +5026,7 @@
       <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="19" t="s">
         <v>23</v>
       </c>
@@ -5035,7 +5041,7 @@
       <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="19" t="s">
         <v>65</v>
       </c>
@@ -5050,7 +5056,7 @@
       <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="33">
+      <c r="A24" s="32">
         <v>46042</v>
       </c>
       <c r="B24" s="19" t="s">
@@ -5067,7 +5073,7 @@
       <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="19" t="s">
         <v>16</v>
       </c>
@@ -5082,7 +5088,7 @@
       <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="19" t="s">
         <v>67</v>
       </c>
@@ -5097,7 +5103,7 @@
       <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="32">
+      <c r="A27" s="34">
         <v>46043</v>
       </c>
       <c r="B27" s="19" t="s">
@@ -5114,7 +5120,7 @@
       <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="19" t="s">
         <v>69</v>
       </c>
@@ -5148,7 +5154,7 @@
       <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="33">
+      <c r="A30" s="32">
         <v>46045</v>
       </c>
       <c r="B30" s="19" t="s">
@@ -5165,7 +5171,7 @@
       <c r="G30" s="20"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="19" t="s">
         <v>29</v>
       </c>
@@ -5180,30 +5186,50 @@
       <c r="G31" s="20"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
+      <c r="A32" s="32">
+        <v>46079</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>16</v>
+      </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
+      <c r="E32" s="19">
+        <v>3</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>74</v>
+      </c>
       <c r="G32" s="20"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="19" t="s">
+        <v>75</v>
+      </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
+      <c r="E33" s="19">
+        <v>2</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>74</v>
+      </c>
       <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="19" t="s">
+        <v>53</v>
+      </c>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
+      <c r="E34" s="19">
+        <v>12</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>74</v>
+      </c>
       <c r="G34" s="20"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -5217,17 +5243,18 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F7" xr:uid="{171653DB-B967-4059-9CE3-FD13B7B63DBC}"/>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A32:A34"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:F999">
     <cfRule type="expression" dxfId="1" priority="1">

--- a/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A3AEE5-FF92-45CA-B416-3C3820FB6334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C133AF-E05D-4A6D-8CF3-0AF9979E3CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="79">
   <si>
     <t>VNSH01</t>
   </si>
@@ -261,6 +261,15 @@
   </si>
   <si>
     <t>Gara anh Tập</t>
+  </si>
+  <si>
+    <t>Đã trả (27/01/26)</t>
+  </si>
+  <si>
+    <t>GPS Tây Ninh</t>
+  </si>
+  <si>
+    <t>Đã trả (28/01/26)</t>
   </si>
 </sst>
 </file>
@@ -845,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,18 +954,18 @@
       </c>
       <c r="E4" s="4">
         <f>Xuất!AH5+Huỷ!AH4</f>
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="F4" s="4">
         <f>C4+D4-E4</f>
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="G4" s="6">
         <v>15</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H22" si="0">F4-G4</f>
-        <v>68</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1061,7 +1070,7 @@
       </c>
       <c r="D8" s="4">
         <f>Nhập!AH8</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E8" s="4">
         <f>Xuất!AH8</f>
@@ -1069,14 +1078,14 @@
       </c>
       <c r="F8" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1091,7 +1100,7 @@
       </c>
       <c r="D9" s="4">
         <f>Nhập!AH9</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E9" s="4">
         <f>Xuất!AH9</f>
@@ -1099,14 +1108,14 @@
       </c>
       <c r="F9" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1211,7 +1220,7 @@
       </c>
       <c r="D13" s="4">
         <f>Nhập!AH13</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E13" s="4">
         <f>Xuất!AH13</f>
@@ -1219,14 +1228,14 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1377,7 +1386,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4">
         <f>Nhập!AH19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="4">
         <f>Xuất!AH19</f>
@@ -1385,9 +1394,11 @@
       </c>
       <c r="F19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
       <c r="H19" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1490,23 +1501,23 @@
       </c>
       <c r="D23" s="4">
         <f t="shared" ref="D23:H23" si="2">SUM(D3:D22)</f>
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="2"/>
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H23" s="4">
         <f t="shared" si="2"/>
-        <v>109</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1542,7 +1553,7 @@
   <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+      <selection activeCell="AG15" sqref="AG15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1958,13 +1969,15 @@
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
+      <c r="AD8" s="7">
+        <v>8</v>
+      </c>
       <c r="AE8" s="7"/>
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
       <c r="AH8" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
@@ -2003,13 +2016,15 @@
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
+      <c r="AD9" s="7">
+        <v>5</v>
+      </c>
       <c r="AE9" s="7"/>
       <c r="AF9" s="7"/>
       <c r="AG9" s="7"/>
       <c r="AH9" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
@@ -2181,11 +2196,16 @@
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
+      <c r="AD13" s="7">
+        <v>3</v>
+      </c>
       <c r="AE13" s="7"/>
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
+      <c r="AH13" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
@@ -2423,7 +2443,9 @@
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
+      <c r="X19" s="7">
+        <v>1</v>
+      </c>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
@@ -2435,7 +2457,7 @@
       <c r="AG19" s="7"/>
       <c r="AH19" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
@@ -2575,7 +2597,7 @@
   <dimension ref="A1:AH23"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+      <selection activeCell="AI22" sqref="AI22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2877,15 +2899,21 @@
       </c>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
+      <c r="AB5" s="7">
+        <v>17</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>16</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>11</v>
+      </c>
       <c r="AE5" s="7"/>
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="7">
         <f t="shared" ref="AH5:AH18" si="0">SUM(C5:AG5)</f>
-        <v>133</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -4660,10 +4688,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C51F44-131D-46D9-8F20-A11BD47AE60F}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5136,7 +5164,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
-        <v>46317</v>
+        <v>46044</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>66</v>
@@ -5187,7 +5215,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="32">
-        <v>46079</v>
+        <v>46048</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>16</v>
@@ -5233,28 +5261,175 @@
       <c r="G34" s="20"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
+      <c r="A35" s="34">
+        <v>46049</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
+      <c r="E35" s="19">
+        <v>6</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>76</v>
+      </c>
       <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="34"/>
+      <c r="B36" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19">
+        <v>10</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G36" s="20"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="32">
+        <v>46050</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19">
+        <v>5</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" s="20"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="33"/>
+      <c r="B38" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19">
+        <v>6</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G38" s="20"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="20"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="20"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="20"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="20"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="20"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="20"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="20"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="20"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="20"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="20"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F7" xr:uid="{171653DB-B967-4059-9CE3-FD13B7B63DBC}"/>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A32:A34"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A32:A34"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:F999">
     <cfRule type="expression" dxfId="1" priority="1">
@@ -5272,8 +5447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1D2FD3-91FF-42CA-8178-C2AD22F246DD}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5367,18 +5542,18 @@
       </c>
       <c r="E4" s="4">
         <f>SUM('Nhập xuất tồn'!E4)</f>
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="F4" s="4">
         <f>SUM(C4+D4-E4)</f>
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="G4" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="4">
         <f>SUM(F4-G4)</f>
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5453,7 +5628,7 @@
       </c>
       <c r="D7" s="4">
         <f>SUM('Nhập xuất tồn'!D7,'Nhập xuất tồn'!D8,'Nhập xuất tồn'!D9,'Nhập xuất tồn'!D12,'Nhập xuất tồn'!D14)</f>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E7" s="4">
         <f>Xuất!AH7</f>
@@ -5461,14 +5636,14 @@
       </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" ref="H7:H17" si="1">SUM(F7-G7)</f>
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5483,7 +5658,7 @@
       </c>
       <c r="D8" s="4">
         <f>SUM('Nhập xuất tồn'!D13,'Nhập xuất tồn'!D15)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E8" s="4">
         <f>Xuất!AH8</f>
@@ -5491,14 +5666,14 @@
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -5649,7 +5824,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4">
         <f>Nhập!AH19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="4">
         <f>Xuất!AH19</f>
@@ -5657,12 +5832,12 @@
       </c>
       <c r="F14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -5763,23 +5938,23 @@
       </c>
       <c r="D18" s="12">
         <f t="shared" ref="D18:F18" si="2">SUM(D3:D17)</f>
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="E18" s="12">
         <f t="shared" si="2"/>
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="F18" s="12">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="G18" s="13">
         <f t="shared" ref="G18" si="3">SUM(G3:G17)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H18" s="12">
         <f t="shared" ref="H18" si="4">SUM(H3:H17)</f>
-        <v>109</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">

--- a/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C133AF-E05D-4A6D-8CF3-0AF9979E3CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB10837-A0BB-4DFA-B17A-DE7BD636B23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="81">
   <si>
     <t>VNSH01</t>
   </si>
@@ -270,6 +270,12 @@
   </si>
   <si>
     <t>Đã trả (28/01/26)</t>
+  </si>
+  <si>
+    <t>ĐL Phúc Hưng</t>
+  </si>
+  <si>
+    <t>Đã trả (30/01/26)</t>
   </si>
 </sst>
 </file>
@@ -924,18 +930,18 @@
       </c>
       <c r="E3" s="4">
         <f>Xuất!AH4+Huỷ!AH3</f>
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F3" s="4">
         <f>C3+D3-E3</f>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
       </c>
       <c r="H3" s="4">
         <f>F3-G3</f>
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -950,22 +956,22 @@
       </c>
       <c r="D4" s="4">
         <f>Nhập!AH4</f>
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="E4" s="4">
         <f>Xuất!AH5+Huỷ!AH4</f>
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="F4" s="4">
         <f>C4+D4-E4</f>
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="G4" s="6">
         <v>15</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H22" si="0">F4-G4</f>
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1501,15 +1507,15 @@
       </c>
       <c r="D23" s="4">
         <f t="shared" ref="D23:H23" si="2">SUM(D3:D22)</f>
-        <v>176</v>
+        <v>248</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="2"/>
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="2"/>
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="2"/>
@@ -1517,7 +1523,7 @@
       </c>
       <c r="H23" s="4">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1553,7 +1559,7 @@
   <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AG15" sqref="AG15"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1793,11 +1799,13 @@
       <c r="AC4" s="7"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
+      <c r="AF4" s="7">
+        <v>72</v>
+      </c>
       <c r="AG4" s="7"/>
       <c r="AH4" s="7">
         <f t="shared" ref="AH4:AH19" si="0">SUM(C4:AG4)</f>
-        <v>72</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -2597,7 +2605,7 @@
   <dimension ref="A1:AH23"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="AI22" sqref="AI22"/>
+      <selection activeCell="AG5" sqref="AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2832,11 +2840,13 @@
       <c r="AC4" s="7"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
+      <c r="AF4" s="7">
+        <v>10</v>
+      </c>
       <c r="AG4" s="7"/>
       <c r="AH4" s="7">
         <f>SUM(C4:AG4)</f>
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -2909,11 +2919,13 @@
         <v>11</v>
       </c>
       <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
+      <c r="AF5" s="7">
+        <v>24</v>
+      </c>
       <c r="AG5" s="7"/>
       <c r="AH5" s="7">
         <f t="shared" ref="AH5:AH18" si="0">SUM(C5:AG5)</f>
-        <v>177</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -4690,8 +4702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C51F44-131D-46D9-8F20-A11BD47AE60F}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5325,30 +5337,54 @@
       <c r="G38" s="20"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
+      <c r="A39" s="32">
+        <v>46052</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>66</v>
+      </c>
       <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
+      <c r="D39" s="19">
+        <v>8</v>
+      </c>
+      <c r="E39" s="19">
+        <v>18</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>80</v>
+      </c>
       <c r="G39" s="20"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
+      <c r="D40" s="19">
+        <v>1</v>
+      </c>
+      <c r="E40" s="19">
+        <v>6</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>80</v>
+      </c>
       <c r="G40" s="20"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
+      <c r="D41" s="19">
+        <v>1</v>
+      </c>
       <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
+      <c r="F41" s="19" t="s">
+        <v>80</v>
+      </c>
       <c r="G41" s="20"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -5416,7 +5452,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F7" xr:uid="{171653DB-B967-4059-9CE3-FD13B7B63DBC}"/>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A17:A18"/>
@@ -5430,6 +5466,7 @@
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A39:A41"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:F999">
     <cfRule type="expression" dxfId="1" priority="1">
@@ -5448,7 +5485,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5512,18 +5549,18 @@
       </c>
       <c r="E3" s="4">
         <f>SUM('Nhập xuất tồn'!E3)</f>
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F3" s="4">
         <f>SUM(C3+D3-E3)</f>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
       </c>
       <c r="H3" s="4">
         <f>SUM(F3-G3)</f>
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5538,22 +5575,22 @@
       </c>
       <c r="D4" s="4">
         <f>SUM('Nhập xuất tồn'!D4)</f>
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="E4" s="4">
         <f>SUM('Nhập xuất tồn'!E4)</f>
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="F4" s="4">
         <f>SUM(C4+D4-E4)</f>
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="G4" s="6">
         <v>16</v>
       </c>
       <c r="H4" s="4">
         <f>SUM(F4-G4)</f>
-        <v>23</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5938,15 +5975,15 @@
       </c>
       <c r="D18" s="12">
         <f t="shared" ref="D18:F18" si="2">SUM(D3:D17)</f>
-        <v>176</v>
+        <v>248</v>
       </c>
       <c r="E18" s="12">
         <f t="shared" si="2"/>
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="F18" s="12">
         <f t="shared" si="2"/>
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="G18" s="13">
         <f t="shared" ref="G18" si="3">SUM(G3:G17)</f>
@@ -5954,7 +5991,7 @@
       </c>
       <c r="H18" s="12">
         <f t="shared" ref="H18" si="4">SUM(H3:H17)</f>
-        <v>81</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">

--- a/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB10837-A0BB-4DFA-B17A-DE7BD636B23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A742F4-5F9F-4F69-BDB8-9A8E05972115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -860,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5453,6 +5453,7 @@
   </sheetData>
   <autoFilter ref="A1:F7" xr:uid="{171653DB-B967-4059-9CE3-FD13B7B63DBC}"/>
   <mergeCells count="14">
+    <mergeCell ref="A39:A41"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A17:A18"/>
@@ -5466,7 +5467,6 @@
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A39:A41"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:F999">
     <cfRule type="expression" dxfId="1" priority="1">
@@ -5484,8 +5484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1D2FD3-91FF-42CA-8178-C2AD22F246DD}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView showZeros="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
+++ b/5. Other/Thiết bị kho gửi/2026/Kho gửi phòng SX-BH 01_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\Thiết bị kho gửi\2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A742F4-5F9F-4F69-BDB8-9A8E05972115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB320CB5-F6F6-42C5-99A1-9EFDCFB9EB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -548,6 +548,9 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -555,9 +558,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -860,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,7 +986,7 @@
       </c>
       <c r="D5" s="4">
         <f>Nhập!AH5</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="4">
         <f>Xuất!AH6+Huỷ!AH5</f>
@@ -994,14 +994,14 @@
       </c>
       <c r="F5" s="4">
         <f t="shared" ref="F5:F22" si="1">C5+D5-E5</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="D6" s="4">
         <f>Nhập!AH6</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" s="4">
         <f>Xuất!AH6</f>
@@ -1024,14 +1024,14 @@
       </c>
       <c r="F6" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="D7" s="4">
         <f>Nhập!AH7</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E7" s="4">
         <f>Xuất!AH7</f>
@@ -1054,14 +1054,14 @@
       </c>
       <c r="F7" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="D8" s="4">
         <f>Nhập!AH8</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E8" s="4">
         <f>Xuất!AH8</f>
@@ -1084,14 +1084,14 @@
       </c>
       <c r="F8" s="4">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="D11" s="4">
         <f>Nhập!AH11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="4">
         <f>Xuất!AH11</f>
@@ -1174,14 +1174,14 @@
       </c>
       <c r="F11" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="D13" s="4">
         <f>Nhập!AH13</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" s="4">
         <f>Xuất!AH13</f>
@@ -1234,14 +1234,14 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="D15" s="4">
         <f>Nhập!AH15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="4">
         <f>Xuất!AH15</f>
@@ -1294,14 +1294,14 @@
       </c>
       <c r="F15" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
       </c>
       <c r="H15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1392,7 +1392,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4">
         <f>Nhập!AH19</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="4">
         <f>Xuất!AH19</f>
@@ -1400,11 +1400,9 @@
       </c>
       <c r="F19" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G19" s="6">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G19" s="6"/>
       <c r="H19" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1420,7 +1418,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4">
         <f>Nhập!AH20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="4">
         <f>Xuất!AH20</f>
@@ -1428,9 +1426,11 @@
       </c>
       <c r="F20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
       <c r="H20" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="D23" s="4">
         <f t="shared" ref="D23:H23" si="2">SUM(D3:D22)</f>
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="2"/>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="F23" s="4">
         <f t="shared" si="2"/>
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="2"/>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="H23" s="4">
         <f t="shared" si="2"/>
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1558,8 +1558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH22"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="AG4" s="7"/>
       <c r="AH4" s="7">
-        <f t="shared" ref="AH4:AH19" si="0">SUM(C4:AG4)</f>
+        <f t="shared" ref="AH4:AH22" si="0">SUM(C4:AG4)</f>
         <v>144</v>
       </c>
     </row>
@@ -1825,7 +1825,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -1850,7 +1850,7 @@
       <c r="AG5" s="7"/>
       <c r="AH5" s="7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -1870,7 +1870,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -1895,7 +1895,7 @@
       <c r="AG6" s="7"/>
       <c r="AH6" s="7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -1932,13 +1932,17 @@
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
+      <c r="AD7" s="7">
+        <v>5</v>
+      </c>
       <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
+      <c r="AF7" s="7">
+        <v>14</v>
+      </c>
       <c r="AG7" s="7"/>
       <c r="AH7" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
@@ -1957,9 +1961,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="7">
-        <v>1</v>
-      </c>
+      <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1978,14 +1980,14 @@
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE8" s="7"/>
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
       <c r="AH8" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
@@ -2118,11 +2120,13 @@
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
       <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
+      <c r="AF11" s="7">
+        <v>1</v>
+      </c>
       <c r="AG11" s="7"/>
       <c r="AH11" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
@@ -2205,14 +2209,14 @@
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE13" s="7"/>
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
       <c r="AH13" s="7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
@@ -2253,7 +2257,10 @@
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
-      <c r="AH14" s="7"/>
+      <c r="AH14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
@@ -2291,9 +2298,14 @@
       <c r="AC15" s="7"/>
       <c r="AD15" s="7"/>
       <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
+      <c r="AF15" s="7">
+        <v>1</v>
+      </c>
       <c r="AG15" s="7"/>
-      <c r="AH15" s="7"/>
+      <c r="AH15" s="7">
+        <f>SUM(C15:AG15)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
@@ -2451,9 +2463,7 @@
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
-      <c r="X19" s="7">
-        <v>1</v>
-      </c>
+      <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
@@ -2465,7 +2475,7 @@
       <c r="AG19" s="7"/>
       <c r="AH19" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
@@ -2496,7 +2506,9 @@
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
       <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
+      <c r="X20" s="8">
+        <v>1</v>
+      </c>
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
       <c r="AA20" s="8"/>
@@ -2506,7 +2518,10 @@
       <c r="AE20" s="8"/>
       <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
-      <c r="AH20" s="8"/>
+      <c r="AH20" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
@@ -2546,7 +2561,10 @@
       <c r="AE21" s="8"/>
       <c r="AF21" s="8"/>
       <c r="AG21" s="8"/>
-      <c r="AH21" s="8"/>
+      <c r="AH21" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
@@ -2586,7 +2604,10 @@
       <c r="AE22" s="8"/>
       <c r="AF22" s="8"/>
       <c r="AG22" s="8"/>
-      <c r="AH22" s="8"/>
+      <c r="AH22" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4742,7 +4763,7 @@
       <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="34">
+      <c r="A2" s="35">
         <v>46027</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -4759,7 +4780,7 @@
       <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="18" t="s">
         <v>18</v>
       </c>
@@ -4774,7 +4795,7 @@
       <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="19" t="s">
         <v>24</v>
       </c>
@@ -4789,7 +4810,7 @@
       <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="19" t="s">
         <v>23</v>
       </c>
@@ -4804,7 +4825,7 @@
       <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="34">
+      <c r="A6" s="35">
         <v>46028</v>
       </c>
       <c r="B6" s="19" t="s">
@@ -4821,7 +4842,7 @@
       <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="19" t="s">
         <v>20</v>
       </c>
@@ -4836,7 +4857,7 @@
       <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
+      <c r="A8" s="35">
         <v>46029</v>
       </c>
       <c r="B8" s="18" t="s">
@@ -4853,7 +4874,7 @@
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="19" t="s">
         <v>16</v>
       </c>
@@ -4919,7 +4940,7 @@
       <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="34">
+      <c r="A13" s="35">
         <v>46035</v>
       </c>
       <c r="B13" s="19" t="s">
@@ -4936,7 +4957,7 @@
       <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="19" t="s">
         <v>23</v>
       </c>
@@ -4951,7 +4972,7 @@
       <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="34">
+      <c r="A15" s="35">
         <v>46036</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -4968,7 +4989,7 @@
       <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="19" t="s">
         <v>54</v>
       </c>
@@ -5000,7 +5021,7 @@
       <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="19" t="s">
         <v>29</v>
       </c>
@@ -5051,7 +5072,7 @@
       <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="19" t="s">
         <v>63</v>
       </c>
@@ -5066,7 +5087,7 @@
       <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="19" t="s">
         <v>23</v>
       </c>
@@ -5081,7 +5102,7 @@
       <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="19" t="s">
         <v>65</v>
       </c>
@@ -5113,7 +5134,7 @@
       <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="19" t="s">
         <v>16</v>
       </c>
@@ -5128,7 +5149,7 @@
       <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="19" t="s">
         <v>67</v>
       </c>
@@ -5143,7 +5164,7 @@
       <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="34">
+      <c r="A27" s="35">
         <v>46043</v>
       </c>
       <c r="B27" s="19" t="s">
@@ -5160,7 +5181,7 @@
       <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="19" t="s">
         <v>69</v>
       </c>
@@ -5211,7 +5232,7 @@
       <c r="G30" s="20"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="19" t="s">
         <v>29</v>
       </c>
@@ -5243,7 +5264,7 @@
       <c r="G32" s="20"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="19" t="s">
         <v>75</v>
       </c>
@@ -5258,7 +5279,7 @@
       <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="19" t="s">
         <v>53</v>
       </c>
@@ -5273,7 +5294,7 @@
       <c r="G34" s="20"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="34">
+      <c r="A35" s="35">
         <v>46049</v>
       </c>
       <c r="B35" s="19" t="s">
@@ -5290,7 +5311,7 @@
       <c r="G35" s="20"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
+      <c r="A36" s="35"/>
       <c r="B36" s="19" t="s">
         <v>29</v>
       </c>
@@ -5322,7 +5343,7 @@
       <c r="G37" s="20"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="33"/>
+      <c r="A38" s="34"/>
       <c r="B38" s="19" t="s">
         <v>77</v>
       </c>
@@ -5356,7 +5377,7 @@
       <c r="G39" s="20"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
+      <c r="A40" s="33"/>
       <c r="B40" s="19" t="s">
         <v>25</v>
       </c>
@@ -5373,7 +5394,7 @@
       <c r="G40" s="20"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="19" t="s">
         <v>79</v>
       </c>
@@ -5485,7 +5506,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5600,12 +5621,10 @@
       <c r="B5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
+      <c r="C5" s="4"/>
       <c r="D5" s="4">
         <f>Nhập!AH5</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="4">
         <f>Xuất!AH6+Huỷ!AH5</f>
@@ -5613,14 +5632,14 @@
       </c>
       <c r="F5" s="4">
         <f t="shared" ref="F5:F16" si="0">C5+D5-E5</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
       </c>
       <c r="H5" s="4">
         <f>SUM(F5-G5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -5635,7 +5654,7 @@
       </c>
       <c r="D6" s="4">
         <f>Nhập!AH6</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" s="4">
         <f>Xuất!AH6</f>
@@ -5643,14 +5662,14 @@
       </c>
       <c r="F6" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
       </c>
       <c r="H6" s="4">
         <f>SUM(F6-G6)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5665,7 +5684,7 @@
       </c>
       <c r="D7" s="4">
         <f>SUM('Nhập xuất tồn'!D7,'Nhập xuất tồn'!D8,'Nhập xuất tồn'!D9,'Nhập xuất tồn'!D12,'Nhập xuất tồn'!D14)</f>
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E7" s="4">
         <f>Xuất!AH7</f>
@@ -5673,14 +5692,14 @@
       </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" ref="H7:H17" si="1">SUM(F7-G7)</f>
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5695,7 +5714,7 @@
       </c>
       <c r="D8" s="4">
         <f>SUM('Nhập xuất tồn'!D13,'Nhập xuất tồn'!D15)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E8" s="4">
         <f>Xuất!AH8</f>
@@ -5703,14 +5722,14 @@
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -5755,7 +5774,7 @@
       </c>
       <c r="D10" s="4">
         <f>SUM('Nhập xuất tồn'!D11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="4">
         <f>Xuất!AH10</f>
@@ -5763,14 +5782,14 @@
       </c>
       <c r="F10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="6">
         <v>0</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -5861,7 +5880,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4">
         <f>Nhập!AH19</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="4">
         <f>Xuất!AH19</f>
@@ -5869,12 +5888,12 @@
       </c>
       <c r="F14" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -5887,7 +5906,7 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4">
         <f>Nhập!AH20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="4">
         <f>Xuất!AH20</f>
@@ -5895,12 +5914,12 @@
       </c>
       <c r="F15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -5975,7 +5994,7 @@
       </c>
       <c r="D18" s="12">
         <f t="shared" ref="D18:F18" si="2">SUM(D3:D17)</f>
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="E18" s="12">
         <f t="shared" si="2"/>
@@ -5983,7 +6002,7 @@
       </c>
       <c r="F18" s="12">
         <f t="shared" si="2"/>
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="G18" s="13">
         <f t="shared" ref="G18" si="3">SUM(G3:G17)</f>
@@ -5991,7 +6010,7 @@
       </c>
       <c r="H18" s="12">
         <f t="shared" ref="H18" si="4">SUM(H3:H17)</f>
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
